--- a/Översikt KARLSBORG.xlsx
+++ b/Översikt KARLSBORG.xlsx
@@ -572,7 +572,7 @@
         <v>44929</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>43803</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -749,7 +749,7 @@
         <v>43804</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         <v>44069</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
         <v>43711</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1010,7 +1010,7 @@
         <v>43325</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1067,7 +1067,7 @@
         <v>43340</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1124,7 +1124,7 @@
         <v>43360</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1181,7 +1181,7 @@
         <v>43360</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1238,7 +1238,7 @@
         <v>43389</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1300,7 +1300,7 @@
         <v>43403</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1357,7 +1357,7 @@
         <v>43403</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1414,7 +1414,7 @@
         <v>43412</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1471,7 +1471,7 @@
         <v>43413</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1528,7 +1528,7 @@
         <v>43431</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1585,7 +1585,7 @@
         <v>43431</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
         <v>43434</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1699,7 +1699,7 @@
         <v>43434</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1756,7 +1756,7 @@
         <v>43437</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1818,7 +1818,7 @@
         <v>43445</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1875,7 +1875,7 @@
         <v>43477</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1932,7 +1932,7 @@
         <v>43493</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         <v>43507</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2046,7 +2046,7 @@
         <v>43509</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2103,7 +2103,7 @@
         <v>43509</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2160,7 +2160,7 @@
         <v>43516</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2217,7 +2217,7 @@
         <v>43517</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2274,7 +2274,7 @@
         <v>43522</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
         <v>43528</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2388,7 +2388,7 @@
         <v>43537</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2445,7 +2445,7 @@
         <v>43557</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2502,7 +2502,7 @@
         <v>43572</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2559,7 +2559,7 @@
         <v>43572</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2616,7 +2616,7 @@
         <v>43584</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2678,7 +2678,7 @@
         <v>43589</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2740,7 +2740,7 @@
         <v>43589</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2802,7 +2802,7 @@
         <v>43609</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2864,7 +2864,7 @@
         <v>43613</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2921,7 +2921,7 @@
         <v>43621</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2983,7 +2983,7 @@
         <v>43621</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3045,7 +3045,7 @@
         <v>43621</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3107,7 +3107,7 @@
         <v>43621</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3169,7 +3169,7 @@
         <v>43621</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3231,7 +3231,7 @@
         <v>43630</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3293,7 +3293,7 @@
         <v>43630</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3355,7 +3355,7 @@
         <v>43630</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3417,7 +3417,7 @@
         <v>43630</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
         <v>43634</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3536,7 +3536,7 @@
         <v>43634</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>43634</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>43634</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         <v>43635</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3764,7 +3764,7 @@
         <v>43644</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3821,7 +3821,7 @@
         <v>43683</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3883,7 +3883,7 @@
         <v>43683</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
         <v>43685</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4002,7 +4002,7 @@
         <v>43685</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>43685</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         <v>43685</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4173,7 +4173,7 @@
         <v>43692</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4235,7 +4235,7 @@
         <v>43703</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4292,7 +4292,7 @@
         <v>43705</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4354,7 +4354,7 @@
         <v>43705</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4416,7 +4416,7 @@
         <v>43714</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4473,7 +4473,7 @@
         <v>43724</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4530,7 +4530,7 @@
         <v>43733</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4592,7 +4592,7 @@
         <v>43740</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4649,7 +4649,7 @@
         <v>43748</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         <v>43762</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4763,7 +4763,7 @@
         <v>43762</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4820,7 +4820,7 @@
         <v>43762</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4877,7 +4877,7 @@
         <v>43781</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4934,7 +4934,7 @@
         <v>43786</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4991,7 +4991,7 @@
         <v>43794</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5048,7 +5048,7 @@
         <v>43794</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5105,7 +5105,7 @@
         <v>43794</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5162,7 +5162,7 @@
         <v>43796</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5219,7 +5219,7 @@
         <v>43804</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5276,7 +5276,7 @@
         <v>43804</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5333,7 +5333,7 @@
         <v>43804</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5390,7 +5390,7 @@
         <v>43804</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5447,7 +5447,7 @@
         <v>43810</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5504,7 +5504,7 @@
         <v>43815</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5561,7 +5561,7 @@
         <v>43815</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5618,7 +5618,7 @@
         <v>43838</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5675,7 +5675,7 @@
         <v>43853</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5732,7 +5732,7 @@
         <v>43865</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5789,7 +5789,7 @@
         <v>43873</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         <v>43873</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5913,7 +5913,7 @@
         <v>43874</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5975,7 +5975,7 @@
         <v>43874</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         <v>43874</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         <v>43874</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>43874</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>43902</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
         <v>43909</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>43936</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6394,7 +6394,7 @@
         <v>43951</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6451,7 +6451,7 @@
         <v>43957</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6508,7 +6508,7 @@
         <v>43973</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6570,7 +6570,7 @@
         <v>43973</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6632,7 +6632,7 @@
         <v>43973</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6694,7 +6694,7 @@
         <v>43978</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6756,7 +6756,7 @@
         <v>43984</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6813,7 +6813,7 @@
         <v>43990</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6870,7 +6870,7 @@
         <v>44034</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6927,7 +6927,7 @@
         <v>44069</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>44072</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>44089</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7103,7 +7103,7 @@
         <v>44089</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7165,7 +7165,7 @@
         <v>44105</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7222,7 +7222,7 @@
         <v>44112</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7279,7 +7279,7 @@
         <v>44118</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7336,7 +7336,7 @@
         <v>44144</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7393,7 +7393,7 @@
         <v>44144</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7450,7 +7450,7 @@
         <v>44179</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7512,7 +7512,7 @@
         <v>44181</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7569,7 +7569,7 @@
         <v>44181</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7626,7 +7626,7 @@
         <v>44182</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7683,7 +7683,7 @@
         <v>44194</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7740,7 +7740,7 @@
         <v>44198</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7797,7 +7797,7 @@
         <v>44209</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7854,7 +7854,7 @@
         <v>44217</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7916,7 +7916,7 @@
         <v>44221</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7973,7 +7973,7 @@
         <v>44222</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8030,7 +8030,7 @@
         <v>44225</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8087,7 +8087,7 @@
         <v>44250</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8144,7 +8144,7 @@
         <v>44266</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8201,7 +8201,7 @@
         <v>44285</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8258,7 +8258,7 @@
         <v>44295</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8315,7 +8315,7 @@
         <v>44315</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8377,7 +8377,7 @@
         <v>44323</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8434,7 +8434,7 @@
         <v>44375</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8491,7 +8491,7 @@
         <v>44426</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8548,7 +8548,7 @@
         <v>44427</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8610,7 +8610,7 @@
         <v>44428</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8672,7 +8672,7 @@
         <v>44448</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8729,7 +8729,7 @@
         <v>44448</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         <v>44448</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8843,7 +8843,7 @@
         <v>44476</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8900,7 +8900,7 @@
         <v>44490</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8957,7 +8957,7 @@
         <v>44494</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9019,7 +9019,7 @@
         <v>44494</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9081,7 +9081,7 @@
         <v>44494</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9143,7 +9143,7 @@
         <v>44494</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9205,7 +9205,7 @@
         <v>44494</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9267,7 +9267,7 @@
         <v>44494</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9329,7 +9329,7 @@
         <v>44496</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9386,7 +9386,7 @@
         <v>44529</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9443,7 +9443,7 @@
         <v>44531</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9500,7 +9500,7 @@
         <v>44537</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9557,7 +9557,7 @@
         <v>44589</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9619,7 +9619,7 @@
         <v>44595</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9681,7 +9681,7 @@
         <v>44599</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9738,7 +9738,7 @@
         <v>44614</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9800,7 +9800,7 @@
         <v>44673</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9862,7 +9862,7 @@
         <v>44705</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9919,7 +9919,7 @@
         <v>44746</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         <v>44803</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10033,7 +10033,7 @@
         <v>44809</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10095,7 +10095,7 @@
         <v>44837</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10157,7 +10157,7 @@
         <v>44882</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10214,7 +10214,7 @@
         <v>44900</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10271,7 +10271,7 @@
         <v>44908</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10328,7 +10328,7 @@
         <v>44937</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10385,7 +10385,7 @@
         <v>44972</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10442,7 +10442,7 @@
         <v>44972</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>44974</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10556,7 +10556,7 @@
         <v>44974</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10613,7 +10613,7 @@
         <v>45002</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10670,7 +10670,7 @@
         <v>45075</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10727,7 +10727,7 @@
         <v>45076</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10784,7 +10784,7 @@
         <v>45076</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10841,7 +10841,7 @@
         <v>45098</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10898,7 +10898,7 @@
         <v>45098</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10955,7 +10955,7 @@
         <v>45140</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11012,7 +11012,7 @@
         <v>45152</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>45153</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11126,7 +11126,7 @@
         <v>45153</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>45161</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>

--- a/Översikt KARLSBORG.xlsx
+++ b/Översikt KARLSBORG.xlsx
@@ -572,7 +572,7 @@
         <v>44929</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>43803</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -749,7 +749,7 @@
         <v>43804</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         <v>44069</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
         <v>43711</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1010,7 +1010,7 @@
         <v>43325</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1067,7 +1067,7 @@
         <v>43340</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1124,7 +1124,7 @@
         <v>43360</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1181,7 +1181,7 @@
         <v>43360</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1238,7 +1238,7 @@
         <v>43389</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1300,7 +1300,7 @@
         <v>43403</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1357,7 +1357,7 @@
         <v>43403</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1414,7 +1414,7 @@
         <v>43412</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1471,7 +1471,7 @@
         <v>43413</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1528,7 +1528,7 @@
         <v>43431</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1585,7 +1585,7 @@
         <v>43431</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
         <v>43434</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1699,7 +1699,7 @@
         <v>43434</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1756,7 +1756,7 @@
         <v>43437</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1818,7 +1818,7 @@
         <v>43445</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1875,7 +1875,7 @@
         <v>43477</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1932,7 +1932,7 @@
         <v>43493</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         <v>43507</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2046,7 +2046,7 @@
         <v>43509</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2103,7 +2103,7 @@
         <v>43509</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2160,7 +2160,7 @@
         <v>43516</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2217,7 +2217,7 @@
         <v>43517</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2274,7 +2274,7 @@
         <v>43522</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
         <v>43528</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2388,7 +2388,7 @@
         <v>43537</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2445,7 +2445,7 @@
         <v>43557</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2502,7 +2502,7 @@
         <v>43572</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2559,7 +2559,7 @@
         <v>43572</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2616,7 +2616,7 @@
         <v>43584</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2678,7 +2678,7 @@
         <v>43589</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2740,7 +2740,7 @@
         <v>43589</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2802,7 +2802,7 @@
         <v>43609</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2864,7 +2864,7 @@
         <v>43613</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2921,7 +2921,7 @@
         <v>43621</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2983,7 +2983,7 @@
         <v>43621</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3045,7 +3045,7 @@
         <v>43621</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3107,7 +3107,7 @@
         <v>43621</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3169,7 +3169,7 @@
         <v>43621</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3231,7 +3231,7 @@
         <v>43630</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3293,7 +3293,7 @@
         <v>43630</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3355,7 +3355,7 @@
         <v>43630</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3417,7 +3417,7 @@
         <v>43630</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
         <v>43634</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3536,7 +3536,7 @@
         <v>43634</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>43634</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>43634</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         <v>43635</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3764,7 +3764,7 @@
         <v>43644</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3821,7 +3821,7 @@
         <v>43683</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3883,7 +3883,7 @@
         <v>43683</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
         <v>43685</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4002,7 +4002,7 @@
         <v>43685</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>43685</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         <v>43685</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4173,7 +4173,7 @@
         <v>43692</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4235,7 +4235,7 @@
         <v>43703</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4292,7 +4292,7 @@
         <v>43705</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4354,7 +4354,7 @@
         <v>43705</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4416,7 +4416,7 @@
         <v>43714</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4473,7 +4473,7 @@
         <v>43724</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4530,7 +4530,7 @@
         <v>43733</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4592,7 +4592,7 @@
         <v>43740</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4649,7 +4649,7 @@
         <v>43748</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         <v>43762</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4763,7 +4763,7 @@
         <v>43762</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4820,7 +4820,7 @@
         <v>43762</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4877,7 +4877,7 @@
         <v>43781</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4934,7 +4934,7 @@
         <v>43786</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4991,7 +4991,7 @@
         <v>43794</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5048,7 +5048,7 @@
         <v>43794</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5105,7 +5105,7 @@
         <v>43794</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5162,7 +5162,7 @@
         <v>43796</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5219,7 +5219,7 @@
         <v>43804</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5276,7 +5276,7 @@
         <v>43804</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5333,7 +5333,7 @@
         <v>43804</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5390,7 +5390,7 @@
         <v>43804</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5447,7 +5447,7 @@
         <v>43810</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5504,7 +5504,7 @@
         <v>43815</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5561,7 +5561,7 @@
         <v>43815</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5618,7 +5618,7 @@
         <v>43838</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5675,7 +5675,7 @@
         <v>43853</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5732,7 +5732,7 @@
         <v>43865</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5789,7 +5789,7 @@
         <v>43873</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         <v>43873</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5913,7 +5913,7 @@
         <v>43874</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5975,7 +5975,7 @@
         <v>43874</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         <v>43874</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         <v>43874</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>43874</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>43902</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
         <v>43909</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>43936</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6394,7 +6394,7 @@
         <v>43951</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6451,7 +6451,7 @@
         <v>43957</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6508,7 +6508,7 @@
         <v>43973</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6570,7 +6570,7 @@
         <v>43973</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6632,7 +6632,7 @@
         <v>43973</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6694,7 +6694,7 @@
         <v>43978</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6756,7 +6756,7 @@
         <v>43984</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6813,7 +6813,7 @@
         <v>43990</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6870,7 +6870,7 @@
         <v>44034</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6927,7 +6927,7 @@
         <v>44069</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>44072</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>44089</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7103,7 +7103,7 @@
         <v>44089</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7165,7 +7165,7 @@
         <v>44105</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7222,7 +7222,7 @@
         <v>44112</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7279,7 +7279,7 @@
         <v>44118</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7336,7 +7336,7 @@
         <v>44144</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7393,7 +7393,7 @@
         <v>44144</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7450,7 +7450,7 @@
         <v>44179</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7512,7 +7512,7 @@
         <v>44181</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7569,7 +7569,7 @@
         <v>44181</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7626,7 +7626,7 @@
         <v>44182</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7683,7 +7683,7 @@
         <v>44194</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7740,7 +7740,7 @@
         <v>44198</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7797,7 +7797,7 @@
         <v>44209</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7854,7 +7854,7 @@
         <v>44217</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7916,7 +7916,7 @@
         <v>44221</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7973,7 +7973,7 @@
         <v>44222</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8030,7 +8030,7 @@
         <v>44225</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8087,7 +8087,7 @@
         <v>44250</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8144,7 +8144,7 @@
         <v>44266</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8201,7 +8201,7 @@
         <v>44285</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8258,7 +8258,7 @@
         <v>44295</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8315,7 +8315,7 @@
         <v>44315</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8377,7 +8377,7 @@
         <v>44323</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8434,7 +8434,7 @@
         <v>44375</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8491,7 +8491,7 @@
         <v>44426</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8548,7 +8548,7 @@
         <v>44427</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8610,7 +8610,7 @@
         <v>44428</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8672,7 +8672,7 @@
         <v>44448</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8729,7 +8729,7 @@
         <v>44448</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         <v>44448</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8843,7 +8843,7 @@
         <v>44476</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8900,7 +8900,7 @@
         <v>44490</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8957,7 +8957,7 @@
         <v>44494</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9019,7 +9019,7 @@
         <v>44494</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9081,7 +9081,7 @@
         <v>44494</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9143,7 +9143,7 @@
         <v>44494</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9205,7 +9205,7 @@
         <v>44494</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9267,7 +9267,7 @@
         <v>44494</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9329,7 +9329,7 @@
         <v>44496</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9386,7 +9386,7 @@
         <v>44529</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9443,7 +9443,7 @@
         <v>44531</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9500,7 +9500,7 @@
         <v>44537</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9557,7 +9557,7 @@
         <v>44589</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9619,7 +9619,7 @@
         <v>44595</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9681,7 +9681,7 @@
         <v>44599</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9738,7 +9738,7 @@
         <v>44614</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9800,7 +9800,7 @@
         <v>44673</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9862,7 +9862,7 @@
         <v>44705</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9919,7 +9919,7 @@
         <v>44746</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         <v>44803</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10033,7 +10033,7 @@
         <v>44809</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10095,7 +10095,7 @@
         <v>44837</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10157,7 +10157,7 @@
         <v>44882</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10214,7 +10214,7 @@
         <v>44900</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10271,7 +10271,7 @@
         <v>44908</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10328,7 +10328,7 @@
         <v>44937</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10385,7 +10385,7 @@
         <v>44972</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10442,7 +10442,7 @@
         <v>44972</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>44974</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10556,7 +10556,7 @@
         <v>44974</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10613,7 +10613,7 @@
         <v>45002</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10670,7 +10670,7 @@
         <v>45075</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10727,7 +10727,7 @@
         <v>45076</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10784,7 +10784,7 @@
         <v>45076</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10841,7 +10841,7 @@
         <v>45098</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10898,7 +10898,7 @@
         <v>45098</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10955,7 +10955,7 @@
         <v>45140</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11012,7 +11012,7 @@
         <v>45152</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>45153</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11126,7 +11126,7 @@
         <v>45153</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>45161</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>

--- a/Översikt KARLSBORG.xlsx
+++ b/Översikt KARLSBORG.xlsx
@@ -572,7 +572,7 @@
         <v>44929</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>43803</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -749,7 +749,7 @@
         <v>43804</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         <v>44069</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
         <v>43711</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1010,7 +1010,7 @@
         <v>43325</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1067,7 +1067,7 @@
         <v>43340</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1124,7 +1124,7 @@
         <v>43360</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1181,7 +1181,7 @@
         <v>43360</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1238,7 +1238,7 @@
         <v>43389</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1300,7 +1300,7 @@
         <v>43403</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1357,7 +1357,7 @@
         <v>43403</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1414,7 +1414,7 @@
         <v>43412</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1471,7 +1471,7 @@
         <v>43413</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1528,7 +1528,7 @@
         <v>43431</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1585,7 +1585,7 @@
         <v>43431</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
         <v>43434</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1699,7 +1699,7 @@
         <v>43434</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1756,7 +1756,7 @@
         <v>43437</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1818,7 +1818,7 @@
         <v>43445</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1875,7 +1875,7 @@
         <v>43477</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1932,7 +1932,7 @@
         <v>43493</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         <v>43507</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2046,7 +2046,7 @@
         <v>43509</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2103,7 +2103,7 @@
         <v>43509</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2160,7 +2160,7 @@
         <v>43516</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2217,7 +2217,7 @@
         <v>43517</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2274,7 +2274,7 @@
         <v>43522</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
         <v>43528</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2388,7 +2388,7 @@
         <v>43537</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2445,7 +2445,7 @@
         <v>43557</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2502,7 +2502,7 @@
         <v>43572</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2559,7 +2559,7 @@
         <v>43572</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2616,7 +2616,7 @@
         <v>43584</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2678,7 +2678,7 @@
         <v>43589</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2740,7 +2740,7 @@
         <v>43589</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2802,7 +2802,7 @@
         <v>43609</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2864,7 +2864,7 @@
         <v>43613</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2921,7 +2921,7 @@
         <v>43621</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2983,7 +2983,7 @@
         <v>43621</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3045,7 +3045,7 @@
         <v>43621</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3107,7 +3107,7 @@
         <v>43621</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3169,7 +3169,7 @@
         <v>43621</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3231,7 +3231,7 @@
         <v>43630</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3293,7 +3293,7 @@
         <v>43630</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3355,7 +3355,7 @@
         <v>43630</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3417,7 +3417,7 @@
         <v>43630</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
         <v>43634</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3536,7 +3536,7 @@
         <v>43634</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>43634</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>43634</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         <v>43635</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3764,7 +3764,7 @@
         <v>43644</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3821,7 +3821,7 @@
         <v>43683</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3883,7 +3883,7 @@
         <v>43683</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
         <v>43685</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4002,7 +4002,7 @@
         <v>43685</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>43685</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         <v>43685</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4173,7 +4173,7 @@
         <v>43692</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4235,7 +4235,7 @@
         <v>43703</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4292,7 +4292,7 @@
         <v>43705</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4354,7 +4354,7 @@
         <v>43705</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4416,7 +4416,7 @@
         <v>43714</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4473,7 +4473,7 @@
         <v>43724</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4530,7 +4530,7 @@
         <v>43733</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4592,7 +4592,7 @@
         <v>43740</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4649,7 +4649,7 @@
         <v>43748</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         <v>43762</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4763,7 +4763,7 @@
         <v>43762</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4820,7 +4820,7 @@
         <v>43762</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4877,7 +4877,7 @@
         <v>43781</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4934,7 +4934,7 @@
         <v>43786</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4991,7 +4991,7 @@
         <v>43794</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5048,7 +5048,7 @@
         <v>43794</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5105,7 +5105,7 @@
         <v>43794</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5162,7 +5162,7 @@
         <v>43796</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5219,7 +5219,7 @@
         <v>43804</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5276,7 +5276,7 @@
         <v>43804</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5333,7 +5333,7 @@
         <v>43804</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5390,7 +5390,7 @@
         <v>43804</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5447,7 +5447,7 @@
         <v>43810</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5504,7 +5504,7 @@
         <v>43815</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5561,7 +5561,7 @@
         <v>43815</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5618,7 +5618,7 @@
         <v>43838</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5675,7 +5675,7 @@
         <v>43853</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5732,7 +5732,7 @@
         <v>43865</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5789,7 +5789,7 @@
         <v>43873</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         <v>43873</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5913,7 +5913,7 @@
         <v>43874</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5975,7 +5975,7 @@
         <v>43874</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         <v>43874</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         <v>43874</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>43874</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>43902</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
         <v>43909</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>43936</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6394,7 +6394,7 @@
         <v>43951</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6451,7 +6451,7 @@
         <v>43957</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6508,7 +6508,7 @@
         <v>43973</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6570,7 +6570,7 @@
         <v>43973</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6632,7 +6632,7 @@
         <v>43973</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6694,7 +6694,7 @@
         <v>43978</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6756,7 +6756,7 @@
         <v>43984</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6813,7 +6813,7 @@
         <v>43990</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6870,7 +6870,7 @@
         <v>44034</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6927,7 +6927,7 @@
         <v>44069</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>44072</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>44089</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7103,7 +7103,7 @@
         <v>44089</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7165,7 +7165,7 @@
         <v>44105</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7222,7 +7222,7 @@
         <v>44112</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7279,7 +7279,7 @@
         <v>44118</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7336,7 +7336,7 @@
         <v>44144</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7393,7 +7393,7 @@
         <v>44144</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7450,7 +7450,7 @@
         <v>44179</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7512,7 +7512,7 @@
         <v>44181</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7569,7 +7569,7 @@
         <v>44181</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7626,7 +7626,7 @@
         <v>44182</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7683,7 +7683,7 @@
         <v>44194</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7740,7 +7740,7 @@
         <v>44198</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7797,7 +7797,7 @@
         <v>44209</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7854,7 +7854,7 @@
         <v>44217</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7916,7 +7916,7 @@
         <v>44221</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7973,7 +7973,7 @@
         <v>44222</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8030,7 +8030,7 @@
         <v>44225</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8087,7 +8087,7 @@
         <v>44250</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8144,7 +8144,7 @@
         <v>44266</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8201,7 +8201,7 @@
         <v>44285</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8258,7 +8258,7 @@
         <v>44295</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8315,7 +8315,7 @@
         <v>44315</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8377,7 +8377,7 @@
         <v>44323</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8434,7 +8434,7 @@
         <v>44375</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8491,7 +8491,7 @@
         <v>44426</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8548,7 +8548,7 @@
         <v>44427</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8610,7 +8610,7 @@
         <v>44428</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8672,7 +8672,7 @@
         <v>44448</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8729,7 +8729,7 @@
         <v>44448</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         <v>44448</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8843,7 +8843,7 @@
         <v>44476</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8900,7 +8900,7 @@
         <v>44490</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8957,7 +8957,7 @@
         <v>44494</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9019,7 +9019,7 @@
         <v>44494</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9081,7 +9081,7 @@
         <v>44494</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9143,7 +9143,7 @@
         <v>44494</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9205,7 +9205,7 @@
         <v>44494</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9267,7 +9267,7 @@
         <v>44494</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9329,7 +9329,7 @@
         <v>44496</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9386,7 +9386,7 @@
         <v>44529</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9443,7 +9443,7 @@
         <v>44531</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9500,7 +9500,7 @@
         <v>44537</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9557,7 +9557,7 @@
         <v>44589</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9619,7 +9619,7 @@
         <v>44595</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9681,7 +9681,7 @@
         <v>44599</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9738,7 +9738,7 @@
         <v>44614</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9800,7 +9800,7 @@
         <v>44673</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9862,7 +9862,7 @@
         <v>44705</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9919,7 +9919,7 @@
         <v>44746</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         <v>44803</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10033,7 +10033,7 @@
         <v>44809</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10095,7 +10095,7 @@
         <v>44837</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10157,7 +10157,7 @@
         <v>44882</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10214,7 +10214,7 @@
         <v>44900</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10271,7 +10271,7 @@
         <v>44908</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10328,7 +10328,7 @@
         <v>44937</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10385,7 +10385,7 @@
         <v>44972</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10442,7 +10442,7 @@
         <v>44972</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>44974</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10556,7 +10556,7 @@
         <v>44974</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10613,7 +10613,7 @@
         <v>45002</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10670,7 +10670,7 @@
         <v>45075</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10727,7 +10727,7 @@
         <v>45076</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10784,7 +10784,7 @@
         <v>45076</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10841,7 +10841,7 @@
         <v>45098</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10898,7 +10898,7 @@
         <v>45098</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10955,7 +10955,7 @@
         <v>45140</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11012,7 +11012,7 @@
         <v>45152</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>45153</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11126,7 +11126,7 @@
         <v>45153</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>45161</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>

--- a/Översikt KARLSBORG.xlsx
+++ b/Översikt KARLSBORG.xlsx
@@ -572,7 +572,7 @@
         <v>44929</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>43803</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -749,7 +749,7 @@
         <v>43804</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         <v>44069</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
         <v>43711</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1010,7 +1010,7 @@
         <v>43325</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1067,7 +1067,7 @@
         <v>43340</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1124,7 +1124,7 @@
         <v>43360</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1181,7 +1181,7 @@
         <v>43360</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1238,7 +1238,7 @@
         <v>43389</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1300,7 +1300,7 @@
         <v>43403</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1357,7 +1357,7 @@
         <v>43403</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1414,7 +1414,7 @@
         <v>43412</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1471,7 +1471,7 @@
         <v>43413</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1528,7 +1528,7 @@
         <v>43431</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1585,7 +1585,7 @@
         <v>43431</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
         <v>43434</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1699,7 +1699,7 @@
         <v>43434</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1756,7 +1756,7 @@
         <v>43437</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1818,7 +1818,7 @@
         <v>43445</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1875,7 +1875,7 @@
         <v>43477</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1932,7 +1932,7 @@
         <v>43493</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         <v>43507</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2046,7 +2046,7 @@
         <v>43509</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2103,7 +2103,7 @@
         <v>43509</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2160,7 +2160,7 @@
         <v>43516</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2217,7 +2217,7 @@
         <v>43517</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2274,7 +2274,7 @@
         <v>43522</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
         <v>43528</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2388,7 +2388,7 @@
         <v>43537</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2445,7 +2445,7 @@
         <v>43557</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2502,7 +2502,7 @@
         <v>43572</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2559,7 +2559,7 @@
         <v>43572</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2616,7 +2616,7 @@
         <v>43584</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2678,7 +2678,7 @@
         <v>43589</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2740,7 +2740,7 @@
         <v>43589</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2802,7 +2802,7 @@
         <v>43609</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2864,7 +2864,7 @@
         <v>43613</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2921,7 +2921,7 @@
         <v>43621</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2983,7 +2983,7 @@
         <v>43621</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3045,7 +3045,7 @@
         <v>43621</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3107,7 +3107,7 @@
         <v>43621</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3169,7 +3169,7 @@
         <v>43621</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3231,7 +3231,7 @@
         <v>43630</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3293,7 +3293,7 @@
         <v>43630</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3355,7 +3355,7 @@
         <v>43630</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3417,7 +3417,7 @@
         <v>43630</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
         <v>43634</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3536,7 +3536,7 @@
         <v>43634</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>43634</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>43634</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         <v>43635</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3764,7 +3764,7 @@
         <v>43644</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3821,7 +3821,7 @@
         <v>43683</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3883,7 +3883,7 @@
         <v>43683</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
         <v>43685</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4002,7 +4002,7 @@
         <v>43685</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>43685</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         <v>43685</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4173,7 +4173,7 @@
         <v>43692</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4235,7 +4235,7 @@
         <v>43703</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4292,7 +4292,7 @@
         <v>43705</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4354,7 +4354,7 @@
         <v>43705</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4416,7 +4416,7 @@
         <v>43714</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4473,7 +4473,7 @@
         <v>43724</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4530,7 +4530,7 @@
         <v>43733</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4592,7 +4592,7 @@
         <v>43740</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4649,7 +4649,7 @@
         <v>43748</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         <v>43762</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4763,7 +4763,7 @@
         <v>43762</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4820,7 +4820,7 @@
         <v>43762</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4877,7 +4877,7 @@
         <v>43781</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4934,7 +4934,7 @@
         <v>43786</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4991,7 +4991,7 @@
         <v>43794</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5048,7 +5048,7 @@
         <v>43794</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5105,7 +5105,7 @@
         <v>43794</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5162,7 +5162,7 @@
         <v>43796</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5219,7 +5219,7 @@
         <v>43804</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5276,7 +5276,7 @@
         <v>43804</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5333,7 +5333,7 @@
         <v>43804</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5390,7 +5390,7 @@
         <v>43804</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5447,7 +5447,7 @@
         <v>43810</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5504,7 +5504,7 @@
         <v>43815</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5561,7 +5561,7 @@
         <v>43815</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5618,7 +5618,7 @@
         <v>43838</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5675,7 +5675,7 @@
         <v>43853</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5732,7 +5732,7 @@
         <v>43865</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5789,7 +5789,7 @@
         <v>43873</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         <v>43873</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5913,7 +5913,7 @@
         <v>43874</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5975,7 +5975,7 @@
         <v>43874</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         <v>43874</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         <v>43874</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>43874</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>43902</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
         <v>43909</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>43936</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6394,7 +6394,7 @@
         <v>43951</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6451,7 +6451,7 @@
         <v>43957</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6508,7 +6508,7 @@
         <v>43973</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6570,7 +6570,7 @@
         <v>43973</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6632,7 +6632,7 @@
         <v>43973</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6694,7 +6694,7 @@
         <v>43978</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6756,7 +6756,7 @@
         <v>43984</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6813,7 +6813,7 @@
         <v>43990</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6870,7 +6870,7 @@
         <v>44034</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6927,7 +6927,7 @@
         <v>44069</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>44072</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>44089</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7103,7 +7103,7 @@
         <v>44089</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7165,7 +7165,7 @@
         <v>44105</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7222,7 +7222,7 @@
         <v>44112</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7279,7 +7279,7 @@
         <v>44118</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7336,7 +7336,7 @@
         <v>44144</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7393,7 +7393,7 @@
         <v>44144</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7450,7 +7450,7 @@
         <v>44179</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7512,7 +7512,7 @@
         <v>44181</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7569,7 +7569,7 @@
         <v>44181</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7626,7 +7626,7 @@
         <v>44182</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7683,7 +7683,7 @@
         <v>44194</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7740,7 +7740,7 @@
         <v>44198</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7797,7 +7797,7 @@
         <v>44209</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7854,7 +7854,7 @@
         <v>44217</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7916,7 +7916,7 @@
         <v>44221</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7973,7 +7973,7 @@
         <v>44222</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8030,7 +8030,7 @@
         <v>44225</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8087,7 +8087,7 @@
         <v>44250</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8144,7 +8144,7 @@
         <v>44266</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8201,7 +8201,7 @@
         <v>44285</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8258,7 +8258,7 @@
         <v>44295</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8315,7 +8315,7 @@
         <v>44315</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8377,7 +8377,7 @@
         <v>44323</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8434,7 +8434,7 @@
         <v>44375</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8491,7 +8491,7 @@
         <v>44426</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8548,7 +8548,7 @@
         <v>44427</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8610,7 +8610,7 @@
         <v>44428</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8672,7 +8672,7 @@
         <v>44448</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8729,7 +8729,7 @@
         <v>44448</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         <v>44448</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8843,7 +8843,7 @@
         <v>44476</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8900,7 +8900,7 @@
         <v>44490</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8957,7 +8957,7 @@
         <v>44494</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9019,7 +9019,7 @@
         <v>44494</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9081,7 +9081,7 @@
         <v>44494</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9143,7 +9143,7 @@
         <v>44494</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9205,7 +9205,7 @@
         <v>44494</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9267,7 +9267,7 @@
         <v>44494</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9329,7 +9329,7 @@
         <v>44496</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9386,7 +9386,7 @@
         <v>44529</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9443,7 +9443,7 @@
         <v>44531</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9500,7 +9500,7 @@
         <v>44537</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9557,7 +9557,7 @@
         <v>44589</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9619,7 +9619,7 @@
         <v>44595</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9681,7 +9681,7 @@
         <v>44599</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9738,7 +9738,7 @@
         <v>44614</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9800,7 +9800,7 @@
         <v>44673</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9862,7 +9862,7 @@
         <v>44705</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9919,7 +9919,7 @@
         <v>44746</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         <v>44803</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10033,7 +10033,7 @@
         <v>44809</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10095,7 +10095,7 @@
         <v>44837</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10157,7 +10157,7 @@
         <v>44882</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10214,7 +10214,7 @@
         <v>44900</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10271,7 +10271,7 @@
         <v>44908</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10328,7 +10328,7 @@
         <v>44937</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10385,7 +10385,7 @@
         <v>44972</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10442,7 +10442,7 @@
         <v>44972</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>44974</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10556,7 +10556,7 @@
         <v>44974</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10613,7 +10613,7 @@
         <v>45002</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10670,7 +10670,7 @@
         <v>45075</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10727,7 +10727,7 @@
         <v>45076</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10784,7 +10784,7 @@
         <v>45076</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10841,7 +10841,7 @@
         <v>45098</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10898,7 +10898,7 @@
         <v>45098</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10955,7 +10955,7 @@
         <v>45140</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11012,7 +11012,7 @@
         <v>45152</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>45153</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11126,7 +11126,7 @@
         <v>45153</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>45161</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>

--- a/Översikt KARLSBORG.xlsx
+++ b/Översikt KARLSBORG.xlsx
@@ -572,7 +572,7 @@
         <v>44929</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>43803</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -749,7 +749,7 @@
         <v>43804</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         <v>44069</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
         <v>43711</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1010,7 +1010,7 @@
         <v>43325</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1067,7 +1067,7 @@
         <v>43340</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1124,7 +1124,7 @@
         <v>43360</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1181,7 +1181,7 @@
         <v>43360</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1238,7 +1238,7 @@
         <v>43389</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1300,7 +1300,7 @@
         <v>43403</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1357,7 +1357,7 @@
         <v>43403</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1414,7 +1414,7 @@
         <v>43412</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1471,7 +1471,7 @@
         <v>43413</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1528,7 +1528,7 @@
         <v>43431</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1585,7 +1585,7 @@
         <v>43431</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
         <v>43434</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1699,7 +1699,7 @@
         <v>43434</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1756,7 +1756,7 @@
         <v>43437</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1818,7 +1818,7 @@
         <v>43445</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1875,7 +1875,7 @@
         <v>43477</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1932,7 +1932,7 @@
         <v>43493</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         <v>43507</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2046,7 +2046,7 @@
         <v>43509</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2103,7 +2103,7 @@
         <v>43509</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2160,7 +2160,7 @@
         <v>43516</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2217,7 +2217,7 @@
         <v>43517</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2274,7 +2274,7 @@
         <v>43522</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
         <v>43528</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2388,7 +2388,7 @@
         <v>43537</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2445,7 +2445,7 @@
         <v>43557</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2502,7 +2502,7 @@
         <v>43572</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2559,7 +2559,7 @@
         <v>43572</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2616,7 +2616,7 @@
         <v>43584</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2678,7 +2678,7 @@
         <v>43589</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2740,7 +2740,7 @@
         <v>43589</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2802,7 +2802,7 @@
         <v>43609</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2864,7 +2864,7 @@
         <v>43613</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2921,7 +2921,7 @@
         <v>43621</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2983,7 +2983,7 @@
         <v>43621</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3045,7 +3045,7 @@
         <v>43621</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3107,7 +3107,7 @@
         <v>43621</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3169,7 +3169,7 @@
         <v>43621</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3231,7 +3231,7 @@
         <v>43630</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3293,7 +3293,7 @@
         <v>43630</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3355,7 +3355,7 @@
         <v>43630</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3417,7 +3417,7 @@
         <v>43630</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
         <v>43634</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3536,7 +3536,7 @@
         <v>43634</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>43634</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>43634</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         <v>43635</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3764,7 +3764,7 @@
         <v>43644</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3821,7 +3821,7 @@
         <v>43683</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3883,7 +3883,7 @@
         <v>43683</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
         <v>43685</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4002,7 +4002,7 @@
         <v>43685</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>43685</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         <v>43685</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4173,7 +4173,7 @@
         <v>43692</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4235,7 +4235,7 @@
         <v>43703</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4292,7 +4292,7 @@
         <v>43705</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4354,7 +4354,7 @@
         <v>43705</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4416,7 +4416,7 @@
         <v>43714</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4473,7 +4473,7 @@
         <v>43724</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4530,7 +4530,7 @@
         <v>43733</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4592,7 +4592,7 @@
         <v>43740</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4649,7 +4649,7 @@
         <v>43748</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         <v>43762</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4763,7 +4763,7 @@
         <v>43762</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4820,7 +4820,7 @@
         <v>43762</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4877,7 +4877,7 @@
         <v>43781</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4934,7 +4934,7 @@
         <v>43786</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4991,7 +4991,7 @@
         <v>43794</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5048,7 +5048,7 @@
         <v>43794</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5105,7 +5105,7 @@
         <v>43794</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5162,7 +5162,7 @@
         <v>43796</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5219,7 +5219,7 @@
         <v>43804</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5276,7 +5276,7 @@
         <v>43804</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5333,7 +5333,7 @@
         <v>43804</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5390,7 +5390,7 @@
         <v>43804</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5447,7 +5447,7 @@
         <v>43810</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5504,7 +5504,7 @@
         <v>43815</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5561,7 +5561,7 @@
         <v>43815</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5618,7 +5618,7 @@
         <v>43838</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5675,7 +5675,7 @@
         <v>43853</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5732,7 +5732,7 @@
         <v>43865</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5789,7 +5789,7 @@
         <v>43873</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         <v>43873</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5913,7 +5913,7 @@
         <v>43874</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5975,7 +5975,7 @@
         <v>43874</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         <v>43874</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         <v>43874</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>43874</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>43902</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
         <v>43909</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>43936</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6394,7 +6394,7 @@
         <v>43951</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6451,7 +6451,7 @@
         <v>43957</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6508,7 +6508,7 @@
         <v>43973</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6570,7 +6570,7 @@
         <v>43973</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6632,7 +6632,7 @@
         <v>43973</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6694,7 +6694,7 @@
         <v>43978</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6756,7 +6756,7 @@
         <v>43984</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6813,7 +6813,7 @@
         <v>43990</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6870,7 +6870,7 @@
         <v>44034</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6927,7 +6927,7 @@
         <v>44069</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>44072</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>44089</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7103,7 +7103,7 @@
         <v>44089</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7165,7 +7165,7 @@
         <v>44105</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7222,7 +7222,7 @@
         <v>44112</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7279,7 +7279,7 @@
         <v>44118</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7336,7 +7336,7 @@
         <v>44144</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7393,7 +7393,7 @@
         <v>44144</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7450,7 +7450,7 @@
         <v>44179</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7512,7 +7512,7 @@
         <v>44181</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7569,7 +7569,7 @@
         <v>44181</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7626,7 +7626,7 @@
         <v>44182</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7683,7 +7683,7 @@
         <v>44194</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7740,7 +7740,7 @@
         <v>44198</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7797,7 +7797,7 @@
         <v>44209</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7854,7 +7854,7 @@
         <v>44217</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7916,7 +7916,7 @@
         <v>44221</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7973,7 +7973,7 @@
         <v>44222</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8030,7 +8030,7 @@
         <v>44225</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8087,7 +8087,7 @@
         <v>44250</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8144,7 +8144,7 @@
         <v>44266</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8201,7 +8201,7 @@
         <v>44285</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8258,7 +8258,7 @@
         <v>44295</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8315,7 +8315,7 @@
         <v>44315</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8377,7 +8377,7 @@
         <v>44323</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8434,7 +8434,7 @@
         <v>44375</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8491,7 +8491,7 @@
         <v>44426</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8548,7 +8548,7 @@
         <v>44427</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8610,7 +8610,7 @@
         <v>44428</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8672,7 +8672,7 @@
         <v>44448</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8729,7 +8729,7 @@
         <v>44448</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         <v>44448</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8843,7 +8843,7 @@
         <v>44476</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8900,7 +8900,7 @@
         <v>44490</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8957,7 +8957,7 @@
         <v>44494</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9019,7 +9019,7 @@
         <v>44494</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9081,7 +9081,7 @@
         <v>44494</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9143,7 +9143,7 @@
         <v>44494</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9205,7 +9205,7 @@
         <v>44494</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9267,7 +9267,7 @@
         <v>44494</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9329,7 +9329,7 @@
         <v>44496</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9386,7 +9386,7 @@
         <v>44529</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9443,7 +9443,7 @@
         <v>44531</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9500,7 +9500,7 @@
         <v>44537</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9557,7 +9557,7 @@
         <v>44589</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9619,7 +9619,7 @@
         <v>44595</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9681,7 +9681,7 @@
         <v>44599</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9738,7 +9738,7 @@
         <v>44614</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9800,7 +9800,7 @@
         <v>44673</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9862,7 +9862,7 @@
         <v>44705</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9919,7 +9919,7 @@
         <v>44746</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         <v>44803</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10033,7 +10033,7 @@
         <v>44809</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10095,7 +10095,7 @@
         <v>44837</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10157,7 +10157,7 @@
         <v>44882</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10214,7 +10214,7 @@
         <v>44900</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10271,7 +10271,7 @@
         <v>44908</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10328,7 +10328,7 @@
         <v>44937</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10385,7 +10385,7 @@
         <v>44972</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10442,7 +10442,7 @@
         <v>44972</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>44974</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10556,7 +10556,7 @@
         <v>44974</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10613,7 +10613,7 @@
         <v>45002</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10670,7 +10670,7 @@
         <v>45075</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10727,7 +10727,7 @@
         <v>45076</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10784,7 +10784,7 @@
         <v>45076</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10841,7 +10841,7 @@
         <v>45098</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10898,7 +10898,7 @@
         <v>45098</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10955,7 +10955,7 @@
         <v>45140</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11012,7 +11012,7 @@
         <v>45152</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>45153</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11126,7 +11126,7 @@
         <v>45153</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>45161</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>

--- a/Översikt KARLSBORG.xlsx
+++ b/Översikt KARLSBORG.xlsx
@@ -572,7 +572,7 @@
         <v>44929</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>43803</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -749,7 +749,7 @@
         <v>43804</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         <v>44069</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
         <v>43711</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1010,7 +1010,7 @@
         <v>43325</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1067,7 +1067,7 @@
         <v>43340</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1124,7 +1124,7 @@
         <v>43360</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1181,7 +1181,7 @@
         <v>43360</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1238,7 +1238,7 @@
         <v>43389</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1300,7 +1300,7 @@
         <v>43403</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1357,7 +1357,7 @@
         <v>43403</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1414,7 +1414,7 @@
         <v>43412</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1471,7 +1471,7 @@
         <v>43413</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1528,7 +1528,7 @@
         <v>43431</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1585,7 +1585,7 @@
         <v>43431</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
         <v>43434</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1699,7 +1699,7 @@
         <v>43434</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1756,7 +1756,7 @@
         <v>43437</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1818,7 +1818,7 @@
         <v>43445</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1875,7 +1875,7 @@
         <v>43477</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1932,7 +1932,7 @@
         <v>43493</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         <v>43507</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2046,7 +2046,7 @@
         <v>43509</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2103,7 +2103,7 @@
         <v>43509</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2160,7 +2160,7 @@
         <v>43516</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2217,7 +2217,7 @@
         <v>43517</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2274,7 +2274,7 @@
         <v>43522</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
         <v>43528</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2388,7 +2388,7 @@
         <v>43537</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2445,7 +2445,7 @@
         <v>43557</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2502,7 +2502,7 @@
         <v>43572</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2559,7 +2559,7 @@
         <v>43572</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2616,7 +2616,7 @@
         <v>43584</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2678,7 +2678,7 @@
         <v>43589</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2740,7 +2740,7 @@
         <v>43589</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2802,7 +2802,7 @@
         <v>43609</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2864,7 +2864,7 @@
         <v>43613</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2921,7 +2921,7 @@
         <v>43621</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2983,7 +2983,7 @@
         <v>43621</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3045,7 +3045,7 @@
         <v>43621</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3107,7 +3107,7 @@
         <v>43621</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3169,7 +3169,7 @@
         <v>43621</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3231,7 +3231,7 @@
         <v>43630</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3293,7 +3293,7 @@
         <v>43630</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3355,7 +3355,7 @@
         <v>43630</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3417,7 +3417,7 @@
         <v>43630</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
         <v>43634</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3536,7 +3536,7 @@
         <v>43634</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>43634</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>43634</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         <v>43635</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3764,7 +3764,7 @@
         <v>43644</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3821,7 +3821,7 @@
         <v>43683</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3883,7 +3883,7 @@
         <v>43683</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
         <v>43685</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4002,7 +4002,7 @@
         <v>43685</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>43685</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         <v>43685</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4173,7 +4173,7 @@
         <v>43692</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4235,7 +4235,7 @@
         <v>43703</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4292,7 +4292,7 @@
         <v>43705</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4354,7 +4354,7 @@
         <v>43705</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4416,7 +4416,7 @@
         <v>43714</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4473,7 +4473,7 @@
         <v>43724</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4530,7 +4530,7 @@
         <v>43733</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4592,7 +4592,7 @@
         <v>43740</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4649,7 +4649,7 @@
         <v>43748</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         <v>43762</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4763,7 +4763,7 @@
         <v>43762</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4820,7 +4820,7 @@
         <v>43762</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4877,7 +4877,7 @@
         <v>43781</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4934,7 +4934,7 @@
         <v>43786</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4991,7 +4991,7 @@
         <v>43794</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5048,7 +5048,7 @@
         <v>43794</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5105,7 +5105,7 @@
         <v>43794</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5162,7 +5162,7 @@
         <v>43796</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5219,7 +5219,7 @@
         <v>43804</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5276,7 +5276,7 @@
         <v>43804</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5333,7 +5333,7 @@
         <v>43804</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5390,7 +5390,7 @@
         <v>43804</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5447,7 +5447,7 @@
         <v>43810</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5504,7 +5504,7 @@
         <v>43815</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5561,7 +5561,7 @@
         <v>43815</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5618,7 +5618,7 @@
         <v>43838</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5675,7 +5675,7 @@
         <v>43853</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5732,7 +5732,7 @@
         <v>43865</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5789,7 +5789,7 @@
         <v>43873</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         <v>43873</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5913,7 +5913,7 @@
         <v>43874</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5975,7 +5975,7 @@
         <v>43874</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         <v>43874</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         <v>43874</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>43874</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>43902</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
         <v>43909</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>43936</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6394,7 +6394,7 @@
         <v>43951</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6451,7 +6451,7 @@
         <v>43957</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6508,7 +6508,7 @@
         <v>43973</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6570,7 +6570,7 @@
         <v>43973</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6632,7 +6632,7 @@
         <v>43973</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6694,7 +6694,7 @@
         <v>43978</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6756,7 +6756,7 @@
         <v>43984</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6813,7 +6813,7 @@
         <v>43990</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6870,7 +6870,7 @@
         <v>44034</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6927,7 +6927,7 @@
         <v>44069</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>44072</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>44089</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7103,7 +7103,7 @@
         <v>44089</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7165,7 +7165,7 @@
         <v>44105</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7222,7 +7222,7 @@
         <v>44112</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7279,7 +7279,7 @@
         <v>44118</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7336,7 +7336,7 @@
         <v>44144</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7393,7 +7393,7 @@
         <v>44144</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7450,7 +7450,7 @@
         <v>44179</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7512,7 +7512,7 @@
         <v>44181</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7569,7 +7569,7 @@
         <v>44181</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7626,7 +7626,7 @@
         <v>44182</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7683,7 +7683,7 @@
         <v>44194</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7740,7 +7740,7 @@
         <v>44198</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7797,7 +7797,7 @@
         <v>44209</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7854,7 +7854,7 @@
         <v>44217</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7916,7 +7916,7 @@
         <v>44221</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7973,7 +7973,7 @@
         <v>44222</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8030,7 +8030,7 @@
         <v>44225</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8087,7 +8087,7 @@
         <v>44250</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8144,7 +8144,7 @@
         <v>44266</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8201,7 +8201,7 @@
         <v>44285</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8258,7 +8258,7 @@
         <v>44295</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8315,7 +8315,7 @@
         <v>44315</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8377,7 +8377,7 @@
         <v>44323</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8434,7 +8434,7 @@
         <v>44375</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8491,7 +8491,7 @@
         <v>44426</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8548,7 +8548,7 @@
         <v>44427</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8610,7 +8610,7 @@
         <v>44428</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8672,7 +8672,7 @@
         <v>44448</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8729,7 +8729,7 @@
         <v>44448</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         <v>44448</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8843,7 +8843,7 @@
         <v>44476</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8900,7 +8900,7 @@
         <v>44490</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8957,7 +8957,7 @@
         <v>44494</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9019,7 +9019,7 @@
         <v>44494</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9081,7 +9081,7 @@
         <v>44494</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9143,7 +9143,7 @@
         <v>44494</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9205,7 +9205,7 @@
         <v>44494</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9267,7 +9267,7 @@
         <v>44494</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9329,7 +9329,7 @@
         <v>44496</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9386,7 +9386,7 @@
         <v>44529</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9443,7 +9443,7 @@
         <v>44531</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9500,7 +9500,7 @@
         <v>44537</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9557,7 +9557,7 @@
         <v>44589</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9619,7 +9619,7 @@
         <v>44595</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9681,7 +9681,7 @@
         <v>44599</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9738,7 +9738,7 @@
         <v>44614</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9800,7 +9800,7 @@
         <v>44673</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9862,7 +9862,7 @@
         <v>44705</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9919,7 +9919,7 @@
         <v>44746</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         <v>44803</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10033,7 +10033,7 @@
         <v>44809</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10095,7 +10095,7 @@
         <v>44837</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10157,7 +10157,7 @@
         <v>44882</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10214,7 +10214,7 @@
         <v>44900</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10271,7 +10271,7 @@
         <v>44908</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10328,7 +10328,7 @@
         <v>44937</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10385,7 +10385,7 @@
         <v>44972</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10442,7 +10442,7 @@
         <v>44972</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>44974</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10556,7 +10556,7 @@
         <v>44974</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10613,7 +10613,7 @@
         <v>45002</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10670,7 +10670,7 @@
         <v>45075</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10727,7 +10727,7 @@
         <v>45076</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10784,7 +10784,7 @@
         <v>45076</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10841,7 +10841,7 @@
         <v>45098</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10898,7 +10898,7 @@
         <v>45098</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10955,7 +10955,7 @@
         <v>45140</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11012,7 +11012,7 @@
         <v>45152</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>45153</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11126,7 +11126,7 @@
         <v>45153</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>45161</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>

--- a/Översikt KARLSBORG.xlsx
+++ b/Översikt KARLSBORG.xlsx
@@ -572,7 +572,7 @@
         <v>44929</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>43803</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -749,7 +749,7 @@
         <v>43804</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         <v>44069</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
         <v>43711</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1010,7 +1010,7 @@
         <v>43325</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1067,7 +1067,7 @@
         <v>43340</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1124,7 +1124,7 @@
         <v>43360</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1181,7 +1181,7 @@
         <v>43360</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1238,7 +1238,7 @@
         <v>43389</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1300,7 +1300,7 @@
         <v>43403</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1357,7 +1357,7 @@
         <v>43403</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1414,7 +1414,7 @@
         <v>43412</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1471,7 +1471,7 @@
         <v>43413</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1528,7 +1528,7 @@
         <v>43431</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1585,7 +1585,7 @@
         <v>43431</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
         <v>43434</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1699,7 +1699,7 @@
         <v>43434</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1756,7 +1756,7 @@
         <v>43437</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1818,7 +1818,7 @@
         <v>43445</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1875,7 +1875,7 @@
         <v>43477</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1932,7 +1932,7 @@
         <v>43493</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         <v>43507</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2046,7 +2046,7 @@
         <v>43509</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2103,7 +2103,7 @@
         <v>43509</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2160,7 +2160,7 @@
         <v>43516</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2217,7 +2217,7 @@
         <v>43517</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2274,7 +2274,7 @@
         <v>43522</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
         <v>43528</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2388,7 +2388,7 @@
         <v>43537</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2445,7 +2445,7 @@
         <v>43557</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2502,7 +2502,7 @@
         <v>43572</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2559,7 +2559,7 @@
         <v>43572</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2616,7 +2616,7 @@
         <v>43584</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2678,7 +2678,7 @@
         <v>43589</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2740,7 +2740,7 @@
         <v>43589</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2802,7 +2802,7 @@
         <v>43609</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2864,7 +2864,7 @@
         <v>43613</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2921,7 +2921,7 @@
         <v>43621</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2983,7 +2983,7 @@
         <v>43621</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3045,7 +3045,7 @@
         <v>43621</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3107,7 +3107,7 @@
         <v>43621</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3169,7 +3169,7 @@
         <v>43621</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3231,7 +3231,7 @@
         <v>43630</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3293,7 +3293,7 @@
         <v>43630</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3355,7 +3355,7 @@
         <v>43630</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3417,7 +3417,7 @@
         <v>43630</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
         <v>43634</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3536,7 +3536,7 @@
         <v>43634</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>43634</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>43634</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         <v>43635</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3764,7 +3764,7 @@
         <v>43644</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3821,7 +3821,7 @@
         <v>43683</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3883,7 +3883,7 @@
         <v>43683</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
         <v>43685</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4002,7 +4002,7 @@
         <v>43685</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>43685</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         <v>43685</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4173,7 +4173,7 @@
         <v>43692</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4235,7 +4235,7 @@
         <v>43703</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4292,7 +4292,7 @@
         <v>43705</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4354,7 +4354,7 @@
         <v>43705</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4416,7 +4416,7 @@
         <v>43714</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4473,7 +4473,7 @@
         <v>43724</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4530,7 +4530,7 @@
         <v>43733</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4592,7 +4592,7 @@
         <v>43740</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4649,7 +4649,7 @@
         <v>43748</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         <v>43762</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4763,7 +4763,7 @@
         <v>43762</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4820,7 +4820,7 @@
         <v>43762</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4877,7 +4877,7 @@
         <v>43781</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4934,7 +4934,7 @@
         <v>43786</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4991,7 +4991,7 @@
         <v>43794</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5048,7 +5048,7 @@
         <v>43794</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5105,7 +5105,7 @@
         <v>43794</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5162,7 +5162,7 @@
         <v>43796</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5219,7 +5219,7 @@
         <v>43804</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5276,7 +5276,7 @@
         <v>43804</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5333,7 +5333,7 @@
         <v>43804</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5390,7 +5390,7 @@
         <v>43804</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5447,7 +5447,7 @@
         <v>43810</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5504,7 +5504,7 @@
         <v>43815</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5561,7 +5561,7 @@
         <v>43815</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5618,7 +5618,7 @@
         <v>43838</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5675,7 +5675,7 @@
         <v>43853</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5732,7 +5732,7 @@
         <v>43865</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5789,7 +5789,7 @@
         <v>43873</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         <v>43873</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5913,7 +5913,7 @@
         <v>43874</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5975,7 +5975,7 @@
         <v>43874</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         <v>43874</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         <v>43874</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>43874</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>43902</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
         <v>43909</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>43936</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6394,7 +6394,7 @@
         <v>43951</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6451,7 +6451,7 @@
         <v>43957</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6508,7 +6508,7 @@
         <v>43973</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6570,7 +6570,7 @@
         <v>43973</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6632,7 +6632,7 @@
         <v>43973</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6694,7 +6694,7 @@
         <v>43978</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6756,7 +6756,7 @@
         <v>43984</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6813,7 +6813,7 @@
         <v>43990</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6870,7 +6870,7 @@
         <v>44034</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6927,7 +6927,7 @@
         <v>44069</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>44072</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>44089</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7103,7 +7103,7 @@
         <v>44089</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7165,7 +7165,7 @@
         <v>44105</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7222,7 +7222,7 @@
         <v>44112</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7279,7 +7279,7 @@
         <v>44118</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7336,7 +7336,7 @@
         <v>44144</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7393,7 +7393,7 @@
         <v>44144</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7450,7 +7450,7 @@
         <v>44179</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7512,7 +7512,7 @@
         <v>44181</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7569,7 +7569,7 @@
         <v>44181</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7626,7 +7626,7 @@
         <v>44182</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7683,7 +7683,7 @@
         <v>44194</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7740,7 +7740,7 @@
         <v>44198</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7797,7 +7797,7 @@
         <v>44209</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7854,7 +7854,7 @@
         <v>44217</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7916,7 +7916,7 @@
         <v>44221</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7973,7 +7973,7 @@
         <v>44222</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8030,7 +8030,7 @@
         <v>44225</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8087,7 +8087,7 @@
         <v>44250</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8144,7 +8144,7 @@
         <v>44266</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8201,7 +8201,7 @@
         <v>44285</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8258,7 +8258,7 @@
         <v>44295</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8315,7 +8315,7 @@
         <v>44315</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8377,7 +8377,7 @@
         <v>44323</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8434,7 +8434,7 @@
         <v>44375</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8491,7 +8491,7 @@
         <v>44426</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8548,7 +8548,7 @@
         <v>44427</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8610,7 +8610,7 @@
         <v>44428</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8672,7 +8672,7 @@
         <v>44448</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8729,7 +8729,7 @@
         <v>44448</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         <v>44448</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8843,7 +8843,7 @@
         <v>44476</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8900,7 +8900,7 @@
         <v>44490</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8957,7 +8957,7 @@
         <v>44494</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9019,7 +9019,7 @@
         <v>44494</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9081,7 +9081,7 @@
         <v>44494</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9143,7 +9143,7 @@
         <v>44494</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9205,7 +9205,7 @@
         <v>44494</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9267,7 +9267,7 @@
         <v>44494</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9329,7 +9329,7 @@
         <v>44496</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9386,7 +9386,7 @@
         <v>44529</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9443,7 +9443,7 @@
         <v>44531</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9500,7 +9500,7 @@
         <v>44537</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9557,7 +9557,7 @@
         <v>44589</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9619,7 +9619,7 @@
         <v>44595</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9681,7 +9681,7 @@
         <v>44599</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9738,7 +9738,7 @@
         <v>44614</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9800,7 +9800,7 @@
         <v>44673</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9862,7 +9862,7 @@
         <v>44705</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9919,7 +9919,7 @@
         <v>44746</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         <v>44803</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10033,7 +10033,7 @@
         <v>44809</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10095,7 +10095,7 @@
         <v>44837</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10157,7 +10157,7 @@
         <v>44882</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10214,7 +10214,7 @@
         <v>44900</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10271,7 +10271,7 @@
         <v>44908</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10328,7 +10328,7 @@
         <v>44937</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10385,7 +10385,7 @@
         <v>44972</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10442,7 +10442,7 @@
         <v>44972</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>44974</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10556,7 +10556,7 @@
         <v>44974</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10613,7 +10613,7 @@
         <v>45002</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10670,7 +10670,7 @@
         <v>45075</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10727,7 +10727,7 @@
         <v>45076</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10784,7 +10784,7 @@
         <v>45076</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10841,7 +10841,7 @@
         <v>45098</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10898,7 +10898,7 @@
         <v>45098</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10955,7 +10955,7 @@
         <v>45140</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11012,7 +11012,7 @@
         <v>45152</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>45153</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11126,7 +11126,7 @@
         <v>45153</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>45161</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>

--- a/Översikt KARLSBORG.xlsx
+++ b/Översikt KARLSBORG.xlsx
@@ -572,7 +572,7 @@
         <v>44929</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>43803</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -749,7 +749,7 @@
         <v>43804</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         <v>44069</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
         <v>43711</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1010,7 +1010,7 @@
         <v>43325</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1067,7 +1067,7 @@
         <v>43340</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1124,7 +1124,7 @@
         <v>43360</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1181,7 +1181,7 @@
         <v>43360</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1238,7 +1238,7 @@
         <v>43389</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1300,7 +1300,7 @@
         <v>43403</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1357,7 +1357,7 @@
         <v>43403</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1414,7 +1414,7 @@
         <v>43412</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1471,7 +1471,7 @@
         <v>43413</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1528,7 +1528,7 @@
         <v>43431</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1585,7 +1585,7 @@
         <v>43431</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
         <v>43434</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1699,7 +1699,7 @@
         <v>43434</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1756,7 +1756,7 @@
         <v>43437</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1818,7 +1818,7 @@
         <v>43445</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1875,7 +1875,7 @@
         <v>43477</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1932,7 +1932,7 @@
         <v>43493</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         <v>43507</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2046,7 +2046,7 @@
         <v>43509</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2103,7 +2103,7 @@
         <v>43509</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2160,7 +2160,7 @@
         <v>43516</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2217,7 +2217,7 @@
         <v>43517</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2274,7 +2274,7 @@
         <v>43522</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
         <v>43528</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2388,7 +2388,7 @@
         <v>43537</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2445,7 +2445,7 @@
         <v>43557</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2502,7 +2502,7 @@
         <v>43572</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2559,7 +2559,7 @@
         <v>43572</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2616,7 +2616,7 @@
         <v>43584</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2678,7 +2678,7 @@
         <v>43589</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2740,7 +2740,7 @@
         <v>43589</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2802,7 +2802,7 @@
         <v>43609</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2864,7 +2864,7 @@
         <v>43613</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2921,7 +2921,7 @@
         <v>43621</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2983,7 +2983,7 @@
         <v>43621</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3045,7 +3045,7 @@
         <v>43621</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3107,7 +3107,7 @@
         <v>43621</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3169,7 +3169,7 @@
         <v>43621</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3231,7 +3231,7 @@
         <v>43630</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3293,7 +3293,7 @@
         <v>43630</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3355,7 +3355,7 @@
         <v>43630</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3417,7 +3417,7 @@
         <v>43630</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
         <v>43634</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3536,7 +3536,7 @@
         <v>43634</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>43634</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>43634</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         <v>43635</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3764,7 +3764,7 @@
         <v>43644</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3821,7 +3821,7 @@
         <v>43683</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3883,7 +3883,7 @@
         <v>43683</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
         <v>43685</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4002,7 +4002,7 @@
         <v>43685</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>43685</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         <v>43685</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4173,7 +4173,7 @@
         <v>43692</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4235,7 +4235,7 @@
         <v>43703</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4292,7 +4292,7 @@
         <v>43705</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4354,7 +4354,7 @@
         <v>43705</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4416,7 +4416,7 @@
         <v>43714</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4473,7 +4473,7 @@
         <v>43724</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4530,7 +4530,7 @@
         <v>43733</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4592,7 +4592,7 @@
         <v>43740</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4649,7 +4649,7 @@
         <v>43748</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         <v>43762</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4763,7 +4763,7 @@
         <v>43762</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4820,7 +4820,7 @@
         <v>43762</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4877,7 +4877,7 @@
         <v>43781</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4934,7 +4934,7 @@
         <v>43786</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4991,7 +4991,7 @@
         <v>43794</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5048,7 +5048,7 @@
         <v>43794</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5105,7 +5105,7 @@
         <v>43794</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5162,7 +5162,7 @@
         <v>43796</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5219,7 +5219,7 @@
         <v>43804</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5276,7 +5276,7 @@
         <v>43804</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5333,7 +5333,7 @@
         <v>43804</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5390,7 +5390,7 @@
         <v>43804</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5447,7 +5447,7 @@
         <v>43810</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5504,7 +5504,7 @@
         <v>43815</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5561,7 +5561,7 @@
         <v>43815</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5618,7 +5618,7 @@
         <v>43838</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5675,7 +5675,7 @@
         <v>43853</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5732,7 +5732,7 @@
         <v>43865</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5789,7 +5789,7 @@
         <v>43873</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         <v>43873</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5913,7 +5913,7 @@
         <v>43874</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5975,7 +5975,7 @@
         <v>43874</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         <v>43874</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         <v>43874</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>43874</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>43902</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
         <v>43909</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>43936</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6394,7 +6394,7 @@
         <v>43951</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6451,7 +6451,7 @@
         <v>43957</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6508,7 +6508,7 @@
         <v>43973</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6570,7 +6570,7 @@
         <v>43973</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6632,7 +6632,7 @@
         <v>43973</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6694,7 +6694,7 @@
         <v>43978</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6756,7 +6756,7 @@
         <v>43984</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6813,7 +6813,7 @@
         <v>43990</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6870,7 +6870,7 @@
         <v>44034</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6927,7 +6927,7 @@
         <v>44069</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>44072</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>44089</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7103,7 +7103,7 @@
         <v>44089</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7165,7 +7165,7 @@
         <v>44105</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7222,7 +7222,7 @@
         <v>44112</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7279,7 +7279,7 @@
         <v>44118</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7336,7 +7336,7 @@
         <v>44144</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7393,7 +7393,7 @@
         <v>44144</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7450,7 +7450,7 @@
         <v>44179</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7512,7 +7512,7 @@
         <v>44181</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7569,7 +7569,7 @@
         <v>44181</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7626,7 +7626,7 @@
         <v>44182</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7683,7 +7683,7 @@
         <v>44194</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7740,7 +7740,7 @@
         <v>44198</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7797,7 +7797,7 @@
         <v>44209</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7854,7 +7854,7 @@
         <v>44217</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7916,7 +7916,7 @@
         <v>44221</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7973,7 +7973,7 @@
         <v>44222</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8030,7 +8030,7 @@
         <v>44225</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8087,7 +8087,7 @@
         <v>44250</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8144,7 +8144,7 @@
         <v>44266</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8201,7 +8201,7 @@
         <v>44285</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8258,7 +8258,7 @@
         <v>44295</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8315,7 +8315,7 @@
         <v>44315</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8377,7 +8377,7 @@
         <v>44323</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8434,7 +8434,7 @@
         <v>44375</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8491,7 +8491,7 @@
         <v>44426</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8548,7 +8548,7 @@
         <v>44427</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8610,7 +8610,7 @@
         <v>44428</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8672,7 +8672,7 @@
         <v>44448</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8729,7 +8729,7 @@
         <v>44448</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         <v>44448</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8843,7 +8843,7 @@
         <v>44476</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8900,7 +8900,7 @@
         <v>44490</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8957,7 +8957,7 @@
         <v>44494</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9019,7 +9019,7 @@
         <v>44494</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9081,7 +9081,7 @@
         <v>44494</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9143,7 +9143,7 @@
         <v>44494</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9205,7 +9205,7 @@
         <v>44494</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9267,7 +9267,7 @@
         <v>44494</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9329,7 +9329,7 @@
         <v>44496</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9386,7 +9386,7 @@
         <v>44529</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9443,7 +9443,7 @@
         <v>44531</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9500,7 +9500,7 @@
         <v>44537</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9557,7 +9557,7 @@
         <v>44589</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9619,7 +9619,7 @@
         <v>44595</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9681,7 +9681,7 @@
         <v>44599</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9738,7 +9738,7 @@
         <v>44614</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9800,7 +9800,7 @@
         <v>44673</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9862,7 +9862,7 @@
         <v>44705</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9919,7 +9919,7 @@
         <v>44746</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         <v>44803</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10033,7 +10033,7 @@
         <v>44809</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10095,7 +10095,7 @@
         <v>44837</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10157,7 +10157,7 @@
         <v>44882</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10214,7 +10214,7 @@
         <v>44900</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10271,7 +10271,7 @@
         <v>44908</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10328,7 +10328,7 @@
         <v>44937</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10385,7 +10385,7 @@
         <v>44972</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10442,7 +10442,7 @@
         <v>44972</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>44974</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10556,7 +10556,7 @@
         <v>44974</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10613,7 +10613,7 @@
         <v>45002</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10670,7 +10670,7 @@
         <v>45075</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10727,7 +10727,7 @@
         <v>45076</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10784,7 +10784,7 @@
         <v>45076</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10841,7 +10841,7 @@
         <v>45098</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10898,7 +10898,7 @@
         <v>45098</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10955,7 +10955,7 @@
         <v>45140</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11012,7 +11012,7 @@
         <v>45152</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>45153</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11126,7 +11126,7 @@
         <v>45153</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>45161</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>

--- a/Översikt KARLSBORG.xlsx
+++ b/Översikt KARLSBORG.xlsx
@@ -572,7 +572,7 @@
         <v>44929</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>43803</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -749,7 +749,7 @@
         <v>43804</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         <v>44069</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
         <v>43711</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1010,7 +1010,7 @@
         <v>43325</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1067,7 +1067,7 @@
         <v>43340</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1124,7 +1124,7 @@
         <v>43360</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1181,7 +1181,7 @@
         <v>43360</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1238,7 +1238,7 @@
         <v>43389</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1300,7 +1300,7 @@
         <v>43403</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1357,7 +1357,7 @@
         <v>43403</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1414,7 +1414,7 @@
         <v>43412</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1471,7 +1471,7 @@
         <v>43413</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1528,7 +1528,7 @@
         <v>43431</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1585,7 +1585,7 @@
         <v>43431</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
         <v>43434</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1699,7 +1699,7 @@
         <v>43434</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1756,7 +1756,7 @@
         <v>43437</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1818,7 +1818,7 @@
         <v>43445</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1875,7 +1875,7 @@
         <v>43477</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1932,7 +1932,7 @@
         <v>43493</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         <v>43507</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2046,7 +2046,7 @@
         <v>43509</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2103,7 +2103,7 @@
         <v>43509</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2160,7 +2160,7 @@
         <v>43516</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2217,7 +2217,7 @@
         <v>43517</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2274,7 +2274,7 @@
         <v>43522</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
         <v>43528</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2388,7 +2388,7 @@
         <v>43537</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2445,7 +2445,7 @@
         <v>43557</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2502,7 +2502,7 @@
         <v>43572</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2559,7 +2559,7 @@
         <v>43572</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2616,7 +2616,7 @@
         <v>43584</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2678,7 +2678,7 @@
         <v>43589</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2740,7 +2740,7 @@
         <v>43589</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2802,7 +2802,7 @@
         <v>43609</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2864,7 +2864,7 @@
         <v>43613</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2921,7 +2921,7 @@
         <v>43621</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2983,7 +2983,7 @@
         <v>43621</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3045,7 +3045,7 @@
         <v>43621</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3107,7 +3107,7 @@
         <v>43621</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3169,7 +3169,7 @@
         <v>43621</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3231,7 +3231,7 @@
         <v>43630</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3293,7 +3293,7 @@
         <v>43630</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3355,7 +3355,7 @@
         <v>43630</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3417,7 +3417,7 @@
         <v>43630</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
         <v>43634</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3536,7 +3536,7 @@
         <v>43634</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>43634</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>43634</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         <v>43635</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3764,7 +3764,7 @@
         <v>43644</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3821,7 +3821,7 @@
         <v>43683</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3883,7 +3883,7 @@
         <v>43683</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
         <v>43685</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4002,7 +4002,7 @@
         <v>43685</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>43685</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         <v>43685</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4173,7 +4173,7 @@
         <v>43692</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4235,7 +4235,7 @@
         <v>43703</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4292,7 +4292,7 @@
         <v>43705</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4354,7 +4354,7 @@
         <v>43705</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4416,7 +4416,7 @@
         <v>43714</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4473,7 +4473,7 @@
         <v>43724</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4530,7 +4530,7 @@
         <v>43733</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4592,7 +4592,7 @@
         <v>43740</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4649,7 +4649,7 @@
         <v>43748</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         <v>43762</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4763,7 +4763,7 @@
         <v>43762</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4820,7 +4820,7 @@
         <v>43762</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4877,7 +4877,7 @@
         <v>43781</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4934,7 +4934,7 @@
         <v>43786</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4991,7 +4991,7 @@
         <v>43794</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5048,7 +5048,7 @@
         <v>43794</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5105,7 +5105,7 @@
         <v>43794</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5162,7 +5162,7 @@
         <v>43796</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5219,7 +5219,7 @@
         <v>43804</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5276,7 +5276,7 @@
         <v>43804</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5333,7 +5333,7 @@
         <v>43804</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5390,7 +5390,7 @@
         <v>43804</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5447,7 +5447,7 @@
         <v>43810</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5504,7 +5504,7 @@
         <v>43815</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5561,7 +5561,7 @@
         <v>43815</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5618,7 +5618,7 @@
         <v>43838</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5675,7 +5675,7 @@
         <v>43853</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5732,7 +5732,7 @@
         <v>43865</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5789,7 +5789,7 @@
         <v>43873</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         <v>43873</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5913,7 +5913,7 @@
         <v>43874</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5975,7 +5975,7 @@
         <v>43874</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         <v>43874</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         <v>43874</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>43874</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>43902</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
         <v>43909</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>43936</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6394,7 +6394,7 @@
         <v>43951</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6451,7 +6451,7 @@
         <v>43957</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6508,7 +6508,7 @@
         <v>43973</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6570,7 +6570,7 @@
         <v>43973</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6632,7 +6632,7 @@
         <v>43973</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6694,7 +6694,7 @@
         <v>43978</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6756,7 +6756,7 @@
         <v>43984</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6813,7 +6813,7 @@
         <v>43990</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6870,7 +6870,7 @@
         <v>44034</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6927,7 +6927,7 @@
         <v>44069</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>44072</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>44089</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7103,7 +7103,7 @@
         <v>44089</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7165,7 +7165,7 @@
         <v>44105</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7222,7 +7222,7 @@
         <v>44112</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7279,7 +7279,7 @@
         <v>44118</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7336,7 +7336,7 @@
         <v>44144</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7393,7 +7393,7 @@
         <v>44144</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7450,7 +7450,7 @@
         <v>44179</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7512,7 +7512,7 @@
         <v>44181</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7569,7 +7569,7 @@
         <v>44181</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7626,7 +7626,7 @@
         <v>44182</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7683,7 +7683,7 @@
         <v>44194</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7740,7 +7740,7 @@
         <v>44198</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7797,7 +7797,7 @@
         <v>44209</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7854,7 +7854,7 @@
         <v>44217</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7916,7 +7916,7 @@
         <v>44221</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7973,7 +7973,7 @@
         <v>44222</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8030,7 +8030,7 @@
         <v>44225</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8087,7 +8087,7 @@
         <v>44250</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8144,7 +8144,7 @@
         <v>44266</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8201,7 +8201,7 @@
         <v>44285</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8258,7 +8258,7 @@
         <v>44295</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8315,7 +8315,7 @@
         <v>44315</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8377,7 +8377,7 @@
         <v>44323</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8434,7 +8434,7 @@
         <v>44375</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8491,7 +8491,7 @@
         <v>44426</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8548,7 +8548,7 @@
         <v>44427</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8610,7 +8610,7 @@
         <v>44428</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8672,7 +8672,7 @@
         <v>44448</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8729,7 +8729,7 @@
         <v>44448</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         <v>44448</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8843,7 +8843,7 @@
         <v>44476</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8900,7 +8900,7 @@
         <v>44490</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8957,7 +8957,7 @@
         <v>44494</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9019,7 +9019,7 @@
         <v>44494</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9081,7 +9081,7 @@
         <v>44494</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9143,7 +9143,7 @@
         <v>44494</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9205,7 +9205,7 @@
         <v>44494</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9267,7 +9267,7 @@
         <v>44494</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9329,7 +9329,7 @@
         <v>44496</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9386,7 +9386,7 @@
         <v>44529</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9443,7 +9443,7 @@
         <v>44531</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9500,7 +9500,7 @@
         <v>44537</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9557,7 +9557,7 @@
         <v>44589</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9619,7 +9619,7 @@
         <v>44595</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9681,7 +9681,7 @@
         <v>44599</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9738,7 +9738,7 @@
         <v>44614</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9800,7 +9800,7 @@
         <v>44673</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9862,7 +9862,7 @@
         <v>44705</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9919,7 +9919,7 @@
         <v>44746</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         <v>44803</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10033,7 +10033,7 @@
         <v>44809</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10095,7 +10095,7 @@
         <v>44837</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10157,7 +10157,7 @@
         <v>44882</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10214,7 +10214,7 @@
         <v>44900</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10271,7 +10271,7 @@
         <v>44908</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10328,7 +10328,7 @@
         <v>44937</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10385,7 +10385,7 @@
         <v>44972</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10442,7 +10442,7 @@
         <v>44972</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>44974</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10556,7 +10556,7 @@
         <v>44974</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10613,7 +10613,7 @@
         <v>45002</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10670,7 +10670,7 @@
         <v>45075</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10727,7 +10727,7 @@
         <v>45076</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10784,7 +10784,7 @@
         <v>45076</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10841,7 +10841,7 @@
         <v>45098</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10898,7 +10898,7 @@
         <v>45098</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10955,7 +10955,7 @@
         <v>45140</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11012,7 +11012,7 @@
         <v>45152</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>45153</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11126,7 +11126,7 @@
         <v>45153</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>45161</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>

--- a/Översikt KARLSBORG.xlsx
+++ b/Översikt KARLSBORG.xlsx
@@ -572,7 +572,7 @@
         <v>44929</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -627,27 +627,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSBORG/artfynd/A 412-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSBORG/artfynd/A 412-2023.xlsx", "A 412-2023")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSBORG/kartor/A 412-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSBORG/kartor/A 412-2023.png", "A 412-2023")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSBORG/klagomål/A 412-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSBORG/klagomål/A 412-2023.docx", "A 412-2023")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSBORG/klagomålsmail/A 412-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSBORG/klagomålsmail/A 412-2023.docx", "A 412-2023")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSBORG/tillsyn/A 412-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSBORG/tillsyn/A 412-2023.docx", "A 412-2023")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSBORG/tillsynsmail/A 412-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSBORG/tillsynsmail/A 412-2023.docx", "A 412-2023")</f>
         <v/>
       </c>
     </row>
@@ -661,7 +661,7 @@
         <v>43803</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -715,27 +715,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSBORG/artfynd/A 65473-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSBORG/artfynd/A 65473-2019.xlsx", "A 65473-2019")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSBORG/kartor/A 65473-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSBORG/kartor/A 65473-2019.png", "A 65473-2019")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSBORG/klagomål/A 65473-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSBORG/klagomål/A 65473-2019.docx", "A 65473-2019")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSBORG/klagomålsmail/A 65473-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSBORG/klagomålsmail/A 65473-2019.docx", "A 65473-2019")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSBORG/tillsyn/A 65473-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSBORG/tillsyn/A 65473-2019.docx", "A 65473-2019")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSBORG/tillsynsmail/A 65473-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSBORG/tillsynsmail/A 65473-2019.docx", "A 65473-2019")</f>
         <v/>
       </c>
     </row>
@@ -749,7 +749,7 @@
         <v>43804</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -803,27 +803,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSBORG/artfynd/A 65650-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSBORG/artfynd/A 65650-2019.xlsx", "A 65650-2019")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSBORG/kartor/A 65650-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSBORG/kartor/A 65650-2019.png", "A 65650-2019")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSBORG/klagomål/A 65650-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSBORG/klagomål/A 65650-2019.docx", "A 65650-2019")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSBORG/klagomålsmail/A 65650-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSBORG/klagomålsmail/A 65650-2019.docx", "A 65650-2019")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSBORG/tillsyn/A 65650-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSBORG/tillsyn/A 65650-2019.docx", "A 65650-2019")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSBORG/tillsynsmail/A 65650-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSBORG/tillsynsmail/A 65650-2019.docx", "A 65650-2019")</f>
         <v/>
       </c>
     </row>
@@ -837,7 +837,7 @@
         <v>44069</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -891,27 +891,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSBORG/artfynd/A 41180-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSBORG/artfynd/A 41180-2020.xlsx", "A 41180-2020")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSBORG/kartor/A 41180-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSBORG/kartor/A 41180-2020.png", "A 41180-2020")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSBORG/klagomål/A 41180-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSBORG/klagomål/A 41180-2020.docx", "A 41180-2020")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSBORG/klagomålsmail/A 41180-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSBORG/klagomålsmail/A 41180-2020.docx", "A 41180-2020")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSBORG/tillsyn/A 41180-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSBORG/tillsyn/A 41180-2020.docx", "A 41180-2020")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSBORG/tillsynsmail/A 41180-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSBORG/tillsynsmail/A 41180-2020.docx", "A 41180-2020")</f>
         <v/>
       </c>
     </row>
@@ -925,7 +925,7 @@
         <v>43711</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -976,27 +976,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSBORG/artfynd/A 44500-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSBORG/artfynd/A 44500-2019.xlsx", "A 44500-2019")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSBORG/kartor/A 44500-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSBORG/kartor/A 44500-2019.png", "A 44500-2019")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSBORG/klagomål/A 44500-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSBORG/klagomål/A 44500-2019.docx", "A 44500-2019")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSBORG/klagomålsmail/A 44500-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSBORG/klagomålsmail/A 44500-2019.docx", "A 44500-2019")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSBORG/tillsyn/A 44500-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSBORG/tillsyn/A 44500-2019.docx", "A 44500-2019")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSBORG/tillsynsmail/A 44500-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSBORG/tillsynsmail/A 44500-2019.docx", "A 44500-2019")</f>
         <v/>
       </c>
     </row>
@@ -1010,7 +1010,7 @@
         <v>43325</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1067,7 +1067,7 @@
         <v>43340</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1124,7 +1124,7 @@
         <v>43360</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1181,7 +1181,7 @@
         <v>43360</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1238,7 +1238,7 @@
         <v>43389</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1300,7 +1300,7 @@
         <v>43403</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1357,7 +1357,7 @@
         <v>43403</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1414,7 +1414,7 @@
         <v>43412</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1471,7 +1471,7 @@
         <v>43413</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1528,7 +1528,7 @@
         <v>43431</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1585,7 +1585,7 @@
         <v>43431</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
         <v>43434</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1699,7 +1699,7 @@
         <v>43434</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1756,7 +1756,7 @@
         <v>43437</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1818,7 +1818,7 @@
         <v>43445</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1875,7 +1875,7 @@
         <v>43477</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1932,7 +1932,7 @@
         <v>43493</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         <v>43507</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2046,7 +2046,7 @@
         <v>43509</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2103,7 +2103,7 @@
         <v>43509</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2160,7 +2160,7 @@
         <v>43516</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2217,7 +2217,7 @@
         <v>43517</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2274,7 +2274,7 @@
         <v>43522</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
         <v>43528</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2388,7 +2388,7 @@
         <v>43537</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2445,7 +2445,7 @@
         <v>43557</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2502,7 +2502,7 @@
         <v>43572</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2559,7 +2559,7 @@
         <v>43572</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2616,7 +2616,7 @@
         <v>43584</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2678,7 +2678,7 @@
         <v>43589</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2740,7 +2740,7 @@
         <v>43589</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2802,7 +2802,7 @@
         <v>43609</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2864,7 +2864,7 @@
         <v>43613</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2921,7 +2921,7 @@
         <v>43621</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2983,7 +2983,7 @@
         <v>43621</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3045,7 +3045,7 @@
         <v>43621</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3107,7 +3107,7 @@
         <v>43621</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3169,7 +3169,7 @@
         <v>43621</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3231,7 +3231,7 @@
         <v>43630</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3293,7 +3293,7 @@
         <v>43630</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3355,7 +3355,7 @@
         <v>43630</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3417,7 +3417,7 @@
         <v>43630</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
         <v>43634</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3536,7 +3536,7 @@
         <v>43634</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>43634</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>43634</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         <v>43635</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3764,7 +3764,7 @@
         <v>43644</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3821,7 +3821,7 @@
         <v>43683</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3883,7 +3883,7 @@
         <v>43683</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
         <v>43685</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4002,7 +4002,7 @@
         <v>43685</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>43685</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         <v>43685</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4173,7 +4173,7 @@
         <v>43692</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4235,7 +4235,7 @@
         <v>43703</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4292,7 +4292,7 @@
         <v>43705</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4354,7 +4354,7 @@
         <v>43705</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4416,7 +4416,7 @@
         <v>43714</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4473,7 +4473,7 @@
         <v>43724</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4530,7 +4530,7 @@
         <v>43733</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4592,7 +4592,7 @@
         <v>43740</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4649,7 +4649,7 @@
         <v>43748</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         <v>43762</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4763,7 +4763,7 @@
         <v>43762</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4820,7 +4820,7 @@
         <v>43762</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4877,7 +4877,7 @@
         <v>43781</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4934,7 +4934,7 @@
         <v>43786</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4991,7 +4991,7 @@
         <v>43794</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5048,7 +5048,7 @@
         <v>43794</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5105,7 +5105,7 @@
         <v>43794</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5162,7 +5162,7 @@
         <v>43796</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5219,7 +5219,7 @@
         <v>43804</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5276,7 +5276,7 @@
         <v>43804</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5333,7 +5333,7 @@
         <v>43804</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5390,7 +5390,7 @@
         <v>43804</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5447,7 +5447,7 @@
         <v>43810</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5504,7 +5504,7 @@
         <v>43815</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5561,7 +5561,7 @@
         <v>43815</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5618,7 +5618,7 @@
         <v>43838</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5675,7 +5675,7 @@
         <v>43853</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5732,7 +5732,7 @@
         <v>43865</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5789,7 +5789,7 @@
         <v>43873</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         <v>43873</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5913,7 +5913,7 @@
         <v>43874</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5975,7 +5975,7 @@
         <v>43874</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         <v>43874</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         <v>43874</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>43874</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>43902</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
         <v>43909</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>43936</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6394,7 +6394,7 @@
         <v>43951</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6451,7 +6451,7 @@
         <v>43957</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6508,7 +6508,7 @@
         <v>43973</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6570,7 +6570,7 @@
         <v>43973</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6632,7 +6632,7 @@
         <v>43973</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6694,7 +6694,7 @@
         <v>43978</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6756,7 +6756,7 @@
         <v>43984</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6813,7 +6813,7 @@
         <v>43990</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6870,7 +6870,7 @@
         <v>44034</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6927,7 +6927,7 @@
         <v>44069</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>44072</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>44089</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7103,7 +7103,7 @@
         <v>44089</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7165,7 +7165,7 @@
         <v>44105</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7222,7 +7222,7 @@
         <v>44112</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7279,7 +7279,7 @@
         <v>44118</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7336,7 +7336,7 @@
         <v>44144</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7393,7 +7393,7 @@
         <v>44144</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7450,7 +7450,7 @@
         <v>44179</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7512,7 +7512,7 @@
         <v>44181</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7569,7 +7569,7 @@
         <v>44181</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7626,7 +7626,7 @@
         <v>44182</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7683,7 +7683,7 @@
         <v>44194</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7740,7 +7740,7 @@
         <v>44198</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7797,7 +7797,7 @@
         <v>44209</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7854,7 +7854,7 @@
         <v>44217</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7916,7 +7916,7 @@
         <v>44221</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7973,7 +7973,7 @@
         <v>44222</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8030,7 +8030,7 @@
         <v>44225</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8087,7 +8087,7 @@
         <v>44250</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8144,7 +8144,7 @@
         <v>44266</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8201,7 +8201,7 @@
         <v>44285</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8258,7 +8258,7 @@
         <v>44295</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8315,7 +8315,7 @@
         <v>44315</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8377,7 +8377,7 @@
         <v>44323</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8434,7 +8434,7 @@
         <v>44375</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8491,7 +8491,7 @@
         <v>44426</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8548,7 +8548,7 @@
         <v>44427</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8610,7 +8610,7 @@
         <v>44428</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8672,7 +8672,7 @@
         <v>44448</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8729,7 +8729,7 @@
         <v>44448</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         <v>44448</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8843,7 +8843,7 @@
         <v>44476</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8900,7 +8900,7 @@
         <v>44490</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8957,7 +8957,7 @@
         <v>44494</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9019,7 +9019,7 @@
         <v>44494</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9081,7 +9081,7 @@
         <v>44494</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9143,7 +9143,7 @@
         <v>44494</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9205,7 +9205,7 @@
         <v>44494</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9267,7 +9267,7 @@
         <v>44494</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9329,7 +9329,7 @@
         <v>44496</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9386,7 +9386,7 @@
         <v>44529</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9443,7 +9443,7 @@
         <v>44531</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9500,7 +9500,7 @@
         <v>44537</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9557,7 +9557,7 @@
         <v>44589</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9619,7 +9619,7 @@
         <v>44595</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9681,7 +9681,7 @@
         <v>44599</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9738,7 +9738,7 @@
         <v>44614</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9800,7 +9800,7 @@
         <v>44673</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9862,7 +9862,7 @@
         <v>44705</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9919,7 +9919,7 @@
         <v>44746</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         <v>44803</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10033,7 +10033,7 @@
         <v>44809</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10095,7 +10095,7 @@
         <v>44837</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10157,7 +10157,7 @@
         <v>44882</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10214,7 +10214,7 @@
         <v>44900</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10271,7 +10271,7 @@
         <v>44908</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10328,7 +10328,7 @@
         <v>44937</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10385,7 +10385,7 @@
         <v>44972</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10442,7 +10442,7 @@
         <v>44972</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>44974</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10556,7 +10556,7 @@
         <v>44974</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10613,7 +10613,7 @@
         <v>45002</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10670,7 +10670,7 @@
         <v>45075</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10727,7 +10727,7 @@
         <v>45076</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10784,7 +10784,7 @@
         <v>45076</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10841,7 +10841,7 @@
         <v>45098</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10898,7 +10898,7 @@
         <v>45098</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10955,7 +10955,7 @@
         <v>45140</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11012,7 +11012,7 @@
         <v>45152</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>45153</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11126,7 +11126,7 @@
         <v>45153</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>45161</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>

--- a/Översikt KARLSBORG.xlsx
+++ b/Översikt KARLSBORG.xlsx
@@ -572,7 +572,7 @@
         <v>44929</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>43803</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -749,7 +749,7 @@
         <v>43804</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         <v>44069</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
         <v>43711</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1010,7 +1010,7 @@
         <v>43325</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1067,7 +1067,7 @@
         <v>43340</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1124,7 +1124,7 @@
         <v>43360</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1181,7 +1181,7 @@
         <v>43360</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1238,7 +1238,7 @@
         <v>43389</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1300,7 +1300,7 @@
         <v>43403</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1357,7 +1357,7 @@
         <v>43403</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1414,7 +1414,7 @@
         <v>43412</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1471,7 +1471,7 @@
         <v>43413</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1528,7 +1528,7 @@
         <v>43431</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1585,7 +1585,7 @@
         <v>43431</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
         <v>43434</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1699,7 +1699,7 @@
         <v>43434</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1756,7 +1756,7 @@
         <v>43437</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1818,7 +1818,7 @@
         <v>43445</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1875,7 +1875,7 @@
         <v>43477</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1932,7 +1932,7 @@
         <v>43493</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         <v>43507</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2046,7 +2046,7 @@
         <v>43509</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2103,7 +2103,7 @@
         <v>43509</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2160,7 +2160,7 @@
         <v>43516</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2217,7 +2217,7 @@
         <v>43517</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2274,7 +2274,7 @@
         <v>43522</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
         <v>43528</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2388,7 +2388,7 @@
         <v>43537</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2445,7 +2445,7 @@
         <v>43557</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2502,7 +2502,7 @@
         <v>43572</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2559,7 +2559,7 @@
         <v>43572</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2616,7 +2616,7 @@
         <v>43584</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2678,7 +2678,7 @@
         <v>43589</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2740,7 +2740,7 @@
         <v>43589</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2802,7 +2802,7 @@
         <v>43609</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2864,7 +2864,7 @@
         <v>43613</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2921,7 +2921,7 @@
         <v>43621</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2983,7 +2983,7 @@
         <v>43621</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3045,7 +3045,7 @@
         <v>43621</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3107,7 +3107,7 @@
         <v>43621</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3169,7 +3169,7 @@
         <v>43621</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3231,7 +3231,7 @@
         <v>43630</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3293,7 +3293,7 @@
         <v>43630</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3355,7 +3355,7 @@
         <v>43630</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3417,7 +3417,7 @@
         <v>43630</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
         <v>43634</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3536,7 +3536,7 @@
         <v>43634</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>43634</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>43634</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         <v>43635</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3764,7 +3764,7 @@
         <v>43644</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3821,7 +3821,7 @@
         <v>43683</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3883,7 +3883,7 @@
         <v>43683</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
         <v>43685</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4002,7 +4002,7 @@
         <v>43685</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>43685</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         <v>43685</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4173,7 +4173,7 @@
         <v>43692</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4235,7 +4235,7 @@
         <v>43703</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4292,7 +4292,7 @@
         <v>43705</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4354,7 +4354,7 @@
         <v>43705</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4416,7 +4416,7 @@
         <v>43714</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4473,7 +4473,7 @@
         <v>43724</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4530,7 +4530,7 @@
         <v>43733</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4592,7 +4592,7 @@
         <v>43740</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4649,7 +4649,7 @@
         <v>43748</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         <v>43762</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4763,7 +4763,7 @@
         <v>43762</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4820,7 +4820,7 @@
         <v>43762</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4877,7 +4877,7 @@
         <v>43781</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4934,7 +4934,7 @@
         <v>43786</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4991,7 +4991,7 @@
         <v>43794</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5048,7 +5048,7 @@
         <v>43794</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5105,7 +5105,7 @@
         <v>43794</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5162,7 +5162,7 @@
         <v>43796</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5219,7 +5219,7 @@
         <v>43804</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5276,7 +5276,7 @@
         <v>43804</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5333,7 +5333,7 @@
         <v>43804</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5390,7 +5390,7 @@
         <v>43804</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5447,7 +5447,7 @@
         <v>43810</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5504,7 +5504,7 @@
         <v>43815</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5561,7 +5561,7 @@
         <v>43815</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5618,7 +5618,7 @@
         <v>43838</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5675,7 +5675,7 @@
         <v>43853</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5732,7 +5732,7 @@
         <v>43865</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5789,7 +5789,7 @@
         <v>43873</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         <v>43873</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5913,7 +5913,7 @@
         <v>43874</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5975,7 +5975,7 @@
         <v>43874</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         <v>43874</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         <v>43874</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>43874</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>43902</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
         <v>43909</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>43936</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6394,7 +6394,7 @@
         <v>43951</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6451,7 +6451,7 @@
         <v>43957</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6508,7 +6508,7 @@
         <v>43973</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6570,7 +6570,7 @@
         <v>43973</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6632,7 +6632,7 @@
         <v>43973</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6694,7 +6694,7 @@
         <v>43978</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6756,7 +6756,7 @@
         <v>43984</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6813,7 +6813,7 @@
         <v>43990</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6870,7 +6870,7 @@
         <v>44034</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6927,7 +6927,7 @@
         <v>44069</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>44072</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>44089</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7103,7 +7103,7 @@
         <v>44089</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7165,7 +7165,7 @@
         <v>44105</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7222,7 +7222,7 @@
         <v>44112</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7279,7 +7279,7 @@
         <v>44118</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7336,7 +7336,7 @@
         <v>44144</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7393,7 +7393,7 @@
         <v>44144</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7450,7 +7450,7 @@
         <v>44179</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7512,7 +7512,7 @@
         <v>44181</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7569,7 +7569,7 @@
         <v>44181</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7626,7 +7626,7 @@
         <v>44182</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7683,7 +7683,7 @@
         <v>44194</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7740,7 +7740,7 @@
         <v>44198</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7797,7 +7797,7 @@
         <v>44209</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7854,7 +7854,7 @@
         <v>44217</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7916,7 +7916,7 @@
         <v>44221</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7973,7 +7973,7 @@
         <v>44222</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8030,7 +8030,7 @@
         <v>44225</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8087,7 +8087,7 @@
         <v>44250</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8144,7 +8144,7 @@
         <v>44266</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8201,7 +8201,7 @@
         <v>44285</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8258,7 +8258,7 @@
         <v>44295</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8315,7 +8315,7 @@
         <v>44315</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8377,7 +8377,7 @@
         <v>44323</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8434,7 +8434,7 @@
         <v>44375</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8491,7 +8491,7 @@
         <v>44426</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8548,7 +8548,7 @@
         <v>44427</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8610,7 +8610,7 @@
         <v>44428</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8672,7 +8672,7 @@
         <v>44448</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8729,7 +8729,7 @@
         <v>44448</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         <v>44448</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8843,7 +8843,7 @@
         <v>44476</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8900,7 +8900,7 @@
         <v>44490</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8957,7 +8957,7 @@
         <v>44494</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9019,7 +9019,7 @@
         <v>44494</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9081,7 +9081,7 @@
         <v>44494</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9143,7 +9143,7 @@
         <v>44494</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9205,7 +9205,7 @@
         <v>44494</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9267,7 +9267,7 @@
         <v>44494</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9329,7 +9329,7 @@
         <v>44496</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9386,7 +9386,7 @@
         <v>44529</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9443,7 +9443,7 @@
         <v>44531</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9500,7 +9500,7 @@
         <v>44537</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9557,7 +9557,7 @@
         <v>44589</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9619,7 +9619,7 @@
         <v>44595</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9681,7 +9681,7 @@
         <v>44599</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9738,7 +9738,7 @@
         <v>44614</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9800,7 +9800,7 @@
         <v>44673</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9862,7 +9862,7 @@
         <v>44705</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9919,7 +9919,7 @@
         <v>44746</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         <v>44803</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10033,7 +10033,7 @@
         <v>44809</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10095,7 +10095,7 @@
         <v>44837</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10157,7 +10157,7 @@
         <v>44882</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10214,7 +10214,7 @@
         <v>44900</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10271,7 +10271,7 @@
         <v>44908</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10328,7 +10328,7 @@
         <v>44937</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10385,7 +10385,7 @@
         <v>44972</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10442,7 +10442,7 @@
         <v>44972</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>44974</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10556,7 +10556,7 @@
         <v>44974</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10613,7 +10613,7 @@
         <v>45002</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10670,7 +10670,7 @@
         <v>45075</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10727,7 +10727,7 @@
         <v>45076</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10784,7 +10784,7 @@
         <v>45076</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10841,7 +10841,7 @@
         <v>45098</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10898,7 +10898,7 @@
         <v>45098</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10955,7 +10955,7 @@
         <v>45140</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11012,7 +11012,7 @@
         <v>45152</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>45153</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11126,7 +11126,7 @@
         <v>45153</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>45161</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>

--- a/Översikt KARLSBORG.xlsx
+++ b/Översikt KARLSBORG.xlsx
@@ -572,7 +572,7 @@
         <v>44929</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>43803</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -749,7 +749,7 @@
         <v>43804</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         <v>44069</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
         <v>43711</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1010,7 +1010,7 @@
         <v>43325</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1067,7 +1067,7 @@
         <v>43340</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1124,7 +1124,7 @@
         <v>43360</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1181,7 +1181,7 @@
         <v>43360</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1238,7 +1238,7 @@
         <v>43389</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1300,7 +1300,7 @@
         <v>43403</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1357,7 +1357,7 @@
         <v>43403</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1414,7 +1414,7 @@
         <v>43412</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1471,7 +1471,7 @@
         <v>43413</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1528,7 +1528,7 @@
         <v>43431</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1585,7 +1585,7 @@
         <v>43431</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
         <v>43434</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1699,7 +1699,7 @@
         <v>43434</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1756,7 +1756,7 @@
         <v>43437</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1818,7 +1818,7 @@
         <v>43445</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1875,7 +1875,7 @@
         <v>43477</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1932,7 +1932,7 @@
         <v>43493</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         <v>43507</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2046,7 +2046,7 @@
         <v>43509</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2103,7 +2103,7 @@
         <v>43509</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2160,7 +2160,7 @@
         <v>43516</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2217,7 +2217,7 @@
         <v>43517</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2274,7 +2274,7 @@
         <v>43522</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
         <v>43528</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2388,7 +2388,7 @@
         <v>43537</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2445,7 +2445,7 @@
         <v>43557</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2502,7 +2502,7 @@
         <v>43572</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2559,7 +2559,7 @@
         <v>43572</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2616,7 +2616,7 @@
         <v>43584</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2678,7 +2678,7 @@
         <v>43589</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2740,7 +2740,7 @@
         <v>43589</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2802,7 +2802,7 @@
         <v>43609</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2864,7 +2864,7 @@
         <v>43613</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2921,7 +2921,7 @@
         <v>43621</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2983,7 +2983,7 @@
         <v>43621</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3045,7 +3045,7 @@
         <v>43621</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3107,7 +3107,7 @@
         <v>43621</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3169,7 +3169,7 @@
         <v>43621</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3231,7 +3231,7 @@
         <v>43630</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3293,7 +3293,7 @@
         <v>43630</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3355,7 +3355,7 @@
         <v>43630</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3417,7 +3417,7 @@
         <v>43630</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
         <v>43634</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3536,7 +3536,7 @@
         <v>43634</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>43634</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>43634</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         <v>43635</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3764,7 +3764,7 @@
         <v>43644</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3821,7 +3821,7 @@
         <v>43683</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3883,7 +3883,7 @@
         <v>43683</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
         <v>43685</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4002,7 +4002,7 @@
         <v>43685</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>43685</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         <v>43685</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4173,7 +4173,7 @@
         <v>43692</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4235,7 +4235,7 @@
         <v>43703</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4292,7 +4292,7 @@
         <v>43705</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4354,7 +4354,7 @@
         <v>43705</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4416,7 +4416,7 @@
         <v>43714</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4473,7 +4473,7 @@
         <v>43724</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4530,7 +4530,7 @@
         <v>43733</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4592,7 +4592,7 @@
         <v>43740</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4649,7 +4649,7 @@
         <v>43748</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         <v>43762</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4763,7 +4763,7 @@
         <v>43762</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4820,7 +4820,7 @@
         <v>43762</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4877,7 +4877,7 @@
         <v>43781</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4934,7 +4934,7 @@
         <v>43786</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4991,7 +4991,7 @@
         <v>43794</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5048,7 +5048,7 @@
         <v>43794</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5105,7 +5105,7 @@
         <v>43794</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5162,7 +5162,7 @@
         <v>43796</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5219,7 +5219,7 @@
         <v>43804</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5276,7 +5276,7 @@
         <v>43804</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5333,7 +5333,7 @@
         <v>43804</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5390,7 +5390,7 @@
         <v>43804</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5447,7 +5447,7 @@
         <v>43810</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5504,7 +5504,7 @@
         <v>43815</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5561,7 +5561,7 @@
         <v>43815</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5618,7 +5618,7 @@
         <v>43838</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5675,7 +5675,7 @@
         <v>43853</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5732,7 +5732,7 @@
         <v>43865</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5789,7 +5789,7 @@
         <v>43873</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         <v>43873</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5913,7 +5913,7 @@
         <v>43874</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5975,7 +5975,7 @@
         <v>43874</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         <v>43874</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         <v>43874</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>43874</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>43902</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
         <v>43909</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>43936</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6394,7 +6394,7 @@
         <v>43951</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6451,7 +6451,7 @@
         <v>43957</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6508,7 +6508,7 @@
         <v>43973</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6570,7 +6570,7 @@
         <v>43973</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6632,7 +6632,7 @@
         <v>43973</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6694,7 +6694,7 @@
         <v>43978</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6756,7 +6756,7 @@
         <v>43984</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6813,7 +6813,7 @@
         <v>43990</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6870,7 +6870,7 @@
         <v>44034</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6927,7 +6927,7 @@
         <v>44069</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>44072</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>44089</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7103,7 +7103,7 @@
         <v>44089</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7165,7 +7165,7 @@
         <v>44105</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7222,7 +7222,7 @@
         <v>44112</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7279,7 +7279,7 @@
         <v>44118</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7336,7 +7336,7 @@
         <v>44144</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7393,7 +7393,7 @@
         <v>44144</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7450,7 +7450,7 @@
         <v>44179</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7512,7 +7512,7 @@
         <v>44181</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7569,7 +7569,7 @@
         <v>44181</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7626,7 +7626,7 @@
         <v>44182</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7683,7 +7683,7 @@
         <v>44194</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7740,7 +7740,7 @@
         <v>44198</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7797,7 +7797,7 @@
         <v>44209</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7854,7 +7854,7 @@
         <v>44217</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7916,7 +7916,7 @@
         <v>44221</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7973,7 +7973,7 @@
         <v>44222</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8030,7 +8030,7 @@
         <v>44225</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8087,7 +8087,7 @@
         <v>44250</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8144,7 +8144,7 @@
         <v>44266</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8201,7 +8201,7 @@
         <v>44285</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8258,7 +8258,7 @@
         <v>44295</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8315,7 +8315,7 @@
         <v>44315</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8377,7 +8377,7 @@
         <v>44323</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8434,7 +8434,7 @@
         <v>44375</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8491,7 +8491,7 @@
         <v>44426</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8548,7 +8548,7 @@
         <v>44427</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8610,7 +8610,7 @@
         <v>44428</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8672,7 +8672,7 @@
         <v>44448</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8729,7 +8729,7 @@
         <v>44448</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         <v>44448</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8843,7 +8843,7 @@
         <v>44476</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8900,7 +8900,7 @@
         <v>44490</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8957,7 +8957,7 @@
         <v>44494</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9019,7 +9019,7 @@
         <v>44494</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9081,7 +9081,7 @@
         <v>44494</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9143,7 +9143,7 @@
         <v>44494</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9205,7 +9205,7 @@
         <v>44494</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9267,7 +9267,7 @@
         <v>44494</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9329,7 +9329,7 @@
         <v>44496</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9386,7 +9386,7 @@
         <v>44529</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9443,7 +9443,7 @@
         <v>44531</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9500,7 +9500,7 @@
         <v>44537</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9557,7 +9557,7 @@
         <v>44589</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9619,7 +9619,7 @@
         <v>44595</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9681,7 +9681,7 @@
         <v>44599</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9738,7 +9738,7 @@
         <v>44614</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9800,7 +9800,7 @@
         <v>44673</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9862,7 +9862,7 @@
         <v>44705</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9919,7 +9919,7 @@
         <v>44746</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         <v>44803</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10033,7 +10033,7 @@
         <v>44809</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10095,7 +10095,7 @@
         <v>44837</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10157,7 +10157,7 @@
         <v>44882</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10214,7 +10214,7 @@
         <v>44900</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10271,7 +10271,7 @@
         <v>44908</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10328,7 +10328,7 @@
         <v>44937</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10385,7 +10385,7 @@
         <v>44972</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10442,7 +10442,7 @@
         <v>44972</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>44974</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10556,7 +10556,7 @@
         <v>44974</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10613,7 +10613,7 @@
         <v>45002</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10670,7 +10670,7 @@
         <v>45075</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10727,7 +10727,7 @@
         <v>45076</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10784,7 +10784,7 @@
         <v>45076</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10841,7 +10841,7 @@
         <v>45098</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10898,7 +10898,7 @@
         <v>45098</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10955,7 +10955,7 @@
         <v>45140</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11012,7 +11012,7 @@
         <v>45152</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>45153</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11126,7 +11126,7 @@
         <v>45153</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>45161</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>

--- a/Översikt KARLSBORG.xlsx
+++ b/Översikt KARLSBORG.xlsx
@@ -572,7 +572,7 @@
         <v>44929</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>43803</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -749,7 +749,7 @@
         <v>43804</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         <v>44069</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
         <v>43711</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1010,7 +1010,7 @@
         <v>43325</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1067,7 +1067,7 @@
         <v>43340</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1124,7 +1124,7 @@
         <v>43360</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1181,7 +1181,7 @@
         <v>43360</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1238,7 +1238,7 @@
         <v>43389</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1300,7 +1300,7 @@
         <v>43403</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1357,7 +1357,7 @@
         <v>43403</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1414,7 +1414,7 @@
         <v>43412</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1471,7 +1471,7 @@
         <v>43413</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1528,7 +1528,7 @@
         <v>43431</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1585,7 +1585,7 @@
         <v>43431</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
         <v>43434</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1699,7 +1699,7 @@
         <v>43434</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1756,7 +1756,7 @@
         <v>43437</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1818,7 +1818,7 @@
         <v>43445</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1875,7 +1875,7 @@
         <v>43477</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1932,7 +1932,7 @@
         <v>43493</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         <v>43507</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2046,7 +2046,7 @@
         <v>43509</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2103,7 +2103,7 @@
         <v>43509</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2160,7 +2160,7 @@
         <v>43516</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2217,7 +2217,7 @@
         <v>43517</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2274,7 +2274,7 @@
         <v>43522</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
         <v>43528</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2388,7 +2388,7 @@
         <v>43537</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2445,7 +2445,7 @@
         <v>43557</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2502,7 +2502,7 @@
         <v>43572</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2559,7 +2559,7 @@
         <v>43572</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2616,7 +2616,7 @@
         <v>43584</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2678,7 +2678,7 @@
         <v>43589</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2740,7 +2740,7 @@
         <v>43589</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2802,7 +2802,7 @@
         <v>43609</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2864,7 +2864,7 @@
         <v>43613</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2921,7 +2921,7 @@
         <v>43621</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2983,7 +2983,7 @@
         <v>43621</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3045,7 +3045,7 @@
         <v>43621</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3107,7 +3107,7 @@
         <v>43621</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3169,7 +3169,7 @@
         <v>43621</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3231,7 +3231,7 @@
         <v>43630</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3293,7 +3293,7 @@
         <v>43630</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3355,7 +3355,7 @@
         <v>43630</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3417,7 +3417,7 @@
         <v>43630</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
         <v>43634</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3536,7 +3536,7 @@
         <v>43634</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>43634</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>43634</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         <v>43635</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3764,7 +3764,7 @@
         <v>43644</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3821,7 +3821,7 @@
         <v>43683</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3883,7 +3883,7 @@
         <v>43683</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
         <v>43685</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4002,7 +4002,7 @@
         <v>43685</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>43685</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         <v>43685</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4173,7 +4173,7 @@
         <v>43692</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4235,7 +4235,7 @@
         <v>43703</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4292,7 +4292,7 @@
         <v>43705</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4354,7 +4354,7 @@
         <v>43705</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4416,7 +4416,7 @@
         <v>43714</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4473,7 +4473,7 @@
         <v>43724</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4530,7 +4530,7 @@
         <v>43733</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4592,7 +4592,7 @@
         <v>43740</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4649,7 +4649,7 @@
         <v>43748</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         <v>43762</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4763,7 +4763,7 @@
         <v>43762</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4820,7 +4820,7 @@
         <v>43762</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4877,7 +4877,7 @@
         <v>43781</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4934,7 +4934,7 @@
         <v>43786</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4991,7 +4991,7 @@
         <v>43794</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5048,7 +5048,7 @@
         <v>43794</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5105,7 +5105,7 @@
         <v>43794</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5162,7 +5162,7 @@
         <v>43796</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5219,7 +5219,7 @@
         <v>43804</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5276,7 +5276,7 @@
         <v>43804</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5333,7 +5333,7 @@
         <v>43804</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5390,7 +5390,7 @@
         <v>43804</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5447,7 +5447,7 @@
         <v>43810</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5504,7 +5504,7 @@
         <v>43815</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5561,7 +5561,7 @@
         <v>43815</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5618,7 +5618,7 @@
         <v>43838</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5675,7 +5675,7 @@
         <v>43853</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5732,7 +5732,7 @@
         <v>43865</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5789,7 +5789,7 @@
         <v>43873</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         <v>43873</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5913,7 +5913,7 @@
         <v>43874</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5975,7 +5975,7 @@
         <v>43874</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         <v>43874</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         <v>43874</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>43874</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>43902</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
         <v>43909</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>43936</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6394,7 +6394,7 @@
         <v>43951</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6451,7 +6451,7 @@
         <v>43957</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6508,7 +6508,7 @@
         <v>43973</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6570,7 +6570,7 @@
         <v>43973</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6632,7 +6632,7 @@
         <v>43973</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6694,7 +6694,7 @@
         <v>43978</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6756,7 +6756,7 @@
         <v>43984</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6813,7 +6813,7 @@
         <v>43990</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6870,7 +6870,7 @@
         <v>44034</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6927,7 +6927,7 @@
         <v>44069</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>44072</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>44089</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7103,7 +7103,7 @@
         <v>44089</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7165,7 +7165,7 @@
         <v>44105</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7222,7 +7222,7 @@
         <v>44112</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7279,7 +7279,7 @@
         <v>44118</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7336,7 +7336,7 @@
         <v>44144</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7393,7 +7393,7 @@
         <v>44144</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7450,7 +7450,7 @@
         <v>44179</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7512,7 +7512,7 @@
         <v>44181</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7569,7 +7569,7 @@
         <v>44181</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7626,7 +7626,7 @@
         <v>44182</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7683,7 +7683,7 @@
         <v>44194</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7740,7 +7740,7 @@
         <v>44198</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7797,7 +7797,7 @@
         <v>44209</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7854,7 +7854,7 @@
         <v>44217</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7916,7 +7916,7 @@
         <v>44221</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7973,7 +7973,7 @@
         <v>44222</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8030,7 +8030,7 @@
         <v>44225</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8087,7 +8087,7 @@
         <v>44250</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8144,7 +8144,7 @@
         <v>44266</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8201,7 +8201,7 @@
         <v>44285</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8258,7 +8258,7 @@
         <v>44295</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8315,7 +8315,7 @@
         <v>44315</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8377,7 +8377,7 @@
         <v>44323</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8434,7 +8434,7 @@
         <v>44375</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8491,7 +8491,7 @@
         <v>44426</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8548,7 +8548,7 @@
         <v>44427</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8610,7 +8610,7 @@
         <v>44428</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8672,7 +8672,7 @@
         <v>44448</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8729,7 +8729,7 @@
         <v>44448</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         <v>44448</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8843,7 +8843,7 @@
         <v>44476</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8900,7 +8900,7 @@
         <v>44490</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8957,7 +8957,7 @@
         <v>44494</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9019,7 +9019,7 @@
         <v>44494</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9081,7 +9081,7 @@
         <v>44494</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9143,7 +9143,7 @@
         <v>44494</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9205,7 +9205,7 @@
         <v>44494</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9267,7 +9267,7 @@
         <v>44494</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9329,7 +9329,7 @@
         <v>44496</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9386,7 +9386,7 @@
         <v>44529</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9443,7 +9443,7 @@
         <v>44531</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9500,7 +9500,7 @@
         <v>44537</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9557,7 +9557,7 @@
         <v>44589</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9619,7 +9619,7 @@
         <v>44595</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9681,7 +9681,7 @@
         <v>44599</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9738,7 +9738,7 @@
         <v>44614</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9800,7 +9800,7 @@
         <v>44673</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9862,7 +9862,7 @@
         <v>44705</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9919,7 +9919,7 @@
         <v>44746</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         <v>44803</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10033,7 +10033,7 @@
         <v>44809</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10095,7 +10095,7 @@
         <v>44837</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10157,7 +10157,7 @@
         <v>44882</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10214,7 +10214,7 @@
         <v>44900</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10271,7 +10271,7 @@
         <v>44908</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10328,7 +10328,7 @@
         <v>44937</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10385,7 +10385,7 @@
         <v>44972</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10442,7 +10442,7 @@
         <v>44972</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>44974</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10556,7 +10556,7 @@
         <v>44974</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10613,7 +10613,7 @@
         <v>45002</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10670,7 +10670,7 @@
         <v>45075</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10727,7 +10727,7 @@
         <v>45076</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10784,7 +10784,7 @@
         <v>45076</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10841,7 +10841,7 @@
         <v>45098</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10898,7 +10898,7 @@
         <v>45098</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10955,7 +10955,7 @@
         <v>45140</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11012,7 +11012,7 @@
         <v>45152</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>45153</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11126,7 +11126,7 @@
         <v>45153</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>45161</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>

--- a/Översikt KARLSBORG.xlsx
+++ b/Översikt KARLSBORG.xlsx
@@ -572,7 +572,7 @@
         <v>44929</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>43803</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -749,7 +749,7 @@
         <v>43804</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         <v>44069</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
         <v>43711</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1010,7 +1010,7 @@
         <v>43325</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1067,7 +1067,7 @@
         <v>43340</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1124,7 +1124,7 @@
         <v>43360</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1181,7 +1181,7 @@
         <v>43360</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1238,7 +1238,7 @@
         <v>43389</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1300,7 +1300,7 @@
         <v>43403</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1357,7 +1357,7 @@
         <v>43403</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1414,7 +1414,7 @@
         <v>43412</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1471,7 +1471,7 @@
         <v>43413</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1528,7 +1528,7 @@
         <v>43431</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1585,7 +1585,7 @@
         <v>43431</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
         <v>43434</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1699,7 +1699,7 @@
         <v>43434</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1756,7 +1756,7 @@
         <v>43437</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1818,7 +1818,7 @@
         <v>43445</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1875,7 +1875,7 @@
         <v>43477</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1932,7 +1932,7 @@
         <v>43493</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         <v>43507</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2046,7 +2046,7 @@
         <v>43509</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2103,7 +2103,7 @@
         <v>43509</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2160,7 +2160,7 @@
         <v>43516</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2217,7 +2217,7 @@
         <v>43517</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2274,7 +2274,7 @@
         <v>43522</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
         <v>43528</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2388,7 +2388,7 @@
         <v>43537</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2445,7 +2445,7 @@
         <v>43557</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2502,7 +2502,7 @@
         <v>43572</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2559,7 +2559,7 @@
         <v>43572</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2616,7 +2616,7 @@
         <v>43584</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2678,7 +2678,7 @@
         <v>43589</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2740,7 +2740,7 @@
         <v>43589</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2802,7 +2802,7 @@
         <v>43609</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2864,7 +2864,7 @@
         <v>43613</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2921,7 +2921,7 @@
         <v>43621</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2983,7 +2983,7 @@
         <v>43621</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3045,7 +3045,7 @@
         <v>43621</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3107,7 +3107,7 @@
         <v>43621</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3169,7 +3169,7 @@
         <v>43621</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3231,7 +3231,7 @@
         <v>43630</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3293,7 +3293,7 @@
         <v>43630</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3355,7 +3355,7 @@
         <v>43630</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3417,7 +3417,7 @@
         <v>43630</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
         <v>43634</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3536,7 +3536,7 @@
         <v>43634</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>43634</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>43634</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         <v>43635</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3764,7 +3764,7 @@
         <v>43644</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3821,7 +3821,7 @@
         <v>43683</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3883,7 +3883,7 @@
         <v>43683</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
         <v>43685</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4002,7 +4002,7 @@
         <v>43685</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>43685</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         <v>43685</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4173,7 +4173,7 @@
         <v>43692</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4235,7 +4235,7 @@
         <v>43703</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4292,7 +4292,7 @@
         <v>43705</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4354,7 +4354,7 @@
         <v>43705</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4416,7 +4416,7 @@
         <v>43714</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4473,7 +4473,7 @@
         <v>43724</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4530,7 +4530,7 @@
         <v>43733</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4592,7 +4592,7 @@
         <v>43740</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4649,7 +4649,7 @@
         <v>43748</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         <v>43762</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4763,7 +4763,7 @@
         <v>43762</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4820,7 +4820,7 @@
         <v>43762</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4877,7 +4877,7 @@
         <v>43781</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4934,7 +4934,7 @@
         <v>43786</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4991,7 +4991,7 @@
         <v>43794</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5048,7 +5048,7 @@
         <v>43794</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5105,7 +5105,7 @@
         <v>43794</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5162,7 +5162,7 @@
         <v>43796</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5219,7 +5219,7 @@
         <v>43804</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5276,7 +5276,7 @@
         <v>43804</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5333,7 +5333,7 @@
         <v>43804</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5390,7 +5390,7 @@
         <v>43804</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5447,7 +5447,7 @@
         <v>43810</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5504,7 +5504,7 @@
         <v>43815</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5561,7 +5561,7 @@
         <v>43815</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5618,7 +5618,7 @@
         <v>43838</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5675,7 +5675,7 @@
         <v>43853</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5732,7 +5732,7 @@
         <v>43865</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5789,7 +5789,7 @@
         <v>43873</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         <v>43873</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5913,7 +5913,7 @@
         <v>43874</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5975,7 +5975,7 @@
         <v>43874</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         <v>43874</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         <v>43874</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>43874</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>43902</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
         <v>43909</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>43936</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6394,7 +6394,7 @@
         <v>43951</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6451,7 +6451,7 @@
         <v>43957</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6508,7 +6508,7 @@
         <v>43973</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6570,7 +6570,7 @@
         <v>43973</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6632,7 +6632,7 @@
         <v>43973</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6694,7 +6694,7 @@
         <v>43978</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6756,7 +6756,7 @@
         <v>43984</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6813,7 +6813,7 @@
         <v>43990</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6870,7 +6870,7 @@
         <v>44034</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6927,7 +6927,7 @@
         <v>44069</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>44072</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>44089</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7103,7 +7103,7 @@
         <v>44089</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7165,7 +7165,7 @@
         <v>44105</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7222,7 +7222,7 @@
         <v>44112</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7279,7 +7279,7 @@
         <v>44118</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7336,7 +7336,7 @@
         <v>44144</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7393,7 +7393,7 @@
         <v>44144</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7450,7 +7450,7 @@
         <v>44179</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7512,7 +7512,7 @@
         <v>44181</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7569,7 +7569,7 @@
         <v>44181</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7626,7 +7626,7 @@
         <v>44182</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7683,7 +7683,7 @@
         <v>44194</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7740,7 +7740,7 @@
         <v>44198</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7797,7 +7797,7 @@
         <v>44209</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7854,7 +7854,7 @@
         <v>44217</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7916,7 +7916,7 @@
         <v>44221</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7973,7 +7973,7 @@
         <v>44222</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8030,7 +8030,7 @@
         <v>44225</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8087,7 +8087,7 @@
         <v>44250</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8144,7 +8144,7 @@
         <v>44266</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8201,7 +8201,7 @@
         <v>44285</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8258,7 +8258,7 @@
         <v>44295</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8315,7 +8315,7 @@
         <v>44315</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8377,7 +8377,7 @@
         <v>44323</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8434,7 +8434,7 @@
         <v>44375</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8491,7 +8491,7 @@
         <v>44426</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8548,7 +8548,7 @@
         <v>44427</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8610,7 +8610,7 @@
         <v>44428</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8672,7 +8672,7 @@
         <v>44448</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8729,7 +8729,7 @@
         <v>44448</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         <v>44448</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8843,7 +8843,7 @@
         <v>44476</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8900,7 +8900,7 @@
         <v>44490</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8957,7 +8957,7 @@
         <v>44494</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9019,7 +9019,7 @@
         <v>44494</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9081,7 +9081,7 @@
         <v>44494</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9143,7 +9143,7 @@
         <v>44494</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9205,7 +9205,7 @@
         <v>44494</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9267,7 +9267,7 @@
         <v>44494</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9329,7 +9329,7 @@
         <v>44496</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9386,7 +9386,7 @@
         <v>44529</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9443,7 +9443,7 @@
         <v>44531</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9500,7 +9500,7 @@
         <v>44537</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9557,7 +9557,7 @@
         <v>44589</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9619,7 +9619,7 @@
         <v>44595</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9681,7 +9681,7 @@
         <v>44599</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9738,7 +9738,7 @@
         <v>44614</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9800,7 +9800,7 @@
         <v>44673</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9862,7 +9862,7 @@
         <v>44705</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9919,7 +9919,7 @@
         <v>44746</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         <v>44803</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10033,7 +10033,7 @@
         <v>44809</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10095,7 +10095,7 @@
         <v>44837</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10157,7 +10157,7 @@
         <v>44882</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10214,7 +10214,7 @@
         <v>44900</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10271,7 +10271,7 @@
         <v>44908</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10328,7 +10328,7 @@
         <v>44937</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10385,7 +10385,7 @@
         <v>44972</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10442,7 +10442,7 @@
         <v>44972</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>44974</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10556,7 +10556,7 @@
         <v>44974</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10613,7 +10613,7 @@
         <v>45002</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10670,7 +10670,7 @@
         <v>45075</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10727,7 +10727,7 @@
         <v>45076</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10784,7 +10784,7 @@
         <v>45076</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10841,7 +10841,7 @@
         <v>45098</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10898,7 +10898,7 @@
         <v>45098</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10955,7 +10955,7 @@
         <v>45140</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11012,7 +11012,7 @@
         <v>45152</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>45153</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11126,7 +11126,7 @@
         <v>45153</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>45161</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>

--- a/Översikt KARLSBORG.xlsx
+++ b/Översikt KARLSBORG.xlsx
@@ -572,7 +572,7 @@
         <v>44929</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>43803</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -749,7 +749,7 @@
         <v>43804</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         <v>44069</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
         <v>43711</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1010,7 +1010,7 @@
         <v>43325</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1067,7 +1067,7 @@
         <v>43340</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1124,7 +1124,7 @@
         <v>43360</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1181,7 +1181,7 @@
         <v>43360</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1238,7 +1238,7 @@
         <v>43389</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1300,7 +1300,7 @@
         <v>43403</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1357,7 +1357,7 @@
         <v>43403</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1414,7 +1414,7 @@
         <v>43412</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1471,7 +1471,7 @@
         <v>43413</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1528,7 +1528,7 @@
         <v>43431</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1585,7 +1585,7 @@
         <v>43431</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
         <v>43434</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1699,7 +1699,7 @@
         <v>43434</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1756,7 +1756,7 @@
         <v>43437</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1818,7 +1818,7 @@
         <v>43445</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1875,7 +1875,7 @@
         <v>43477</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1932,7 +1932,7 @@
         <v>43493</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         <v>43507</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2046,7 +2046,7 @@
         <v>43509</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2103,7 +2103,7 @@
         <v>43509</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2160,7 +2160,7 @@
         <v>43516</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2217,7 +2217,7 @@
         <v>43517</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2274,7 +2274,7 @@
         <v>43522</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
         <v>43528</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2388,7 +2388,7 @@
         <v>43537</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2445,7 +2445,7 @@
         <v>43557</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2502,7 +2502,7 @@
         <v>43572</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2559,7 +2559,7 @@
         <v>43572</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2616,7 +2616,7 @@
         <v>43584</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2678,7 +2678,7 @@
         <v>43589</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2740,7 +2740,7 @@
         <v>43589</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2802,7 +2802,7 @@
         <v>43609</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2864,7 +2864,7 @@
         <v>43613</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2921,7 +2921,7 @@
         <v>43621</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2983,7 +2983,7 @@
         <v>43621</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3045,7 +3045,7 @@
         <v>43621</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3107,7 +3107,7 @@
         <v>43621</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3169,7 +3169,7 @@
         <v>43621</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3231,7 +3231,7 @@
         <v>43630</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3293,7 +3293,7 @@
         <v>43630</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3355,7 +3355,7 @@
         <v>43630</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3417,7 +3417,7 @@
         <v>43630</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
         <v>43634</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3536,7 +3536,7 @@
         <v>43634</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>43634</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>43634</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         <v>43635</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3764,7 +3764,7 @@
         <v>43644</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3821,7 +3821,7 @@
         <v>43683</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3883,7 +3883,7 @@
         <v>43683</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
         <v>43685</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4002,7 +4002,7 @@
         <v>43685</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>43685</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         <v>43685</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4173,7 +4173,7 @@
         <v>43692</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4235,7 +4235,7 @@
         <v>43703</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4292,7 +4292,7 @@
         <v>43705</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4354,7 +4354,7 @@
         <v>43705</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4416,7 +4416,7 @@
         <v>43714</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4473,7 +4473,7 @@
         <v>43724</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4530,7 +4530,7 @@
         <v>43733</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4592,7 +4592,7 @@
         <v>43740</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4649,7 +4649,7 @@
         <v>43748</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         <v>43762</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4763,7 +4763,7 @@
         <v>43762</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4820,7 +4820,7 @@
         <v>43762</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4877,7 +4877,7 @@
         <v>43781</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4934,7 +4934,7 @@
         <v>43786</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4991,7 +4991,7 @@
         <v>43794</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5048,7 +5048,7 @@
         <v>43794</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5105,7 +5105,7 @@
         <v>43794</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5162,7 +5162,7 @@
         <v>43796</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5219,7 +5219,7 @@
         <v>43804</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5276,7 +5276,7 @@
         <v>43804</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5333,7 +5333,7 @@
         <v>43804</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5390,7 +5390,7 @@
         <v>43804</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5447,7 +5447,7 @@
         <v>43810</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5504,7 +5504,7 @@
         <v>43815</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5561,7 +5561,7 @@
         <v>43815</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5618,7 +5618,7 @@
         <v>43838</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5675,7 +5675,7 @@
         <v>43853</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5732,7 +5732,7 @@
         <v>43865</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5789,7 +5789,7 @@
         <v>43873</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         <v>43873</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5913,7 +5913,7 @@
         <v>43874</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5975,7 +5975,7 @@
         <v>43874</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         <v>43874</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         <v>43874</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>43874</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>43902</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
         <v>43909</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>43936</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6394,7 +6394,7 @@
         <v>43951</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6451,7 +6451,7 @@
         <v>43957</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6508,7 +6508,7 @@
         <v>43973</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6570,7 +6570,7 @@
         <v>43973</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6632,7 +6632,7 @@
         <v>43973</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6694,7 +6694,7 @@
         <v>43978</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6756,7 +6756,7 @@
         <v>43984</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6813,7 +6813,7 @@
         <v>43990</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6870,7 +6870,7 @@
         <v>44034</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6927,7 +6927,7 @@
         <v>44069</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>44072</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>44089</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7103,7 +7103,7 @@
         <v>44089</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7165,7 +7165,7 @@
         <v>44105</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7222,7 +7222,7 @@
         <v>44112</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7279,7 +7279,7 @@
         <v>44118</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7336,7 +7336,7 @@
         <v>44144</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7393,7 +7393,7 @@
         <v>44144</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7450,7 +7450,7 @@
         <v>44179</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7512,7 +7512,7 @@
         <v>44181</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7569,7 +7569,7 @@
         <v>44181</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7626,7 +7626,7 @@
         <v>44182</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7683,7 +7683,7 @@
         <v>44194</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7740,7 +7740,7 @@
         <v>44198</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7797,7 +7797,7 @@
         <v>44209</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7854,7 +7854,7 @@
         <v>44217</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7916,7 +7916,7 @@
         <v>44221</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7973,7 +7973,7 @@
         <v>44222</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8030,7 +8030,7 @@
         <v>44225</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8087,7 +8087,7 @@
         <v>44250</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8144,7 +8144,7 @@
         <v>44266</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8201,7 +8201,7 @@
         <v>44285</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8258,7 +8258,7 @@
         <v>44295</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8315,7 +8315,7 @@
         <v>44315</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8377,7 +8377,7 @@
         <v>44323</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8434,7 +8434,7 @@
         <v>44375</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8491,7 +8491,7 @@
         <v>44426</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8548,7 +8548,7 @@
         <v>44427</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8610,7 +8610,7 @@
         <v>44428</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8672,7 +8672,7 @@
         <v>44448</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8729,7 +8729,7 @@
         <v>44448</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         <v>44448</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8843,7 +8843,7 @@
         <v>44476</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8900,7 +8900,7 @@
         <v>44490</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8957,7 +8957,7 @@
         <v>44494</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9019,7 +9019,7 @@
         <v>44494</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9081,7 +9081,7 @@
         <v>44494</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9143,7 +9143,7 @@
         <v>44494</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9205,7 +9205,7 @@
         <v>44494</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9267,7 +9267,7 @@
         <v>44494</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9329,7 +9329,7 @@
         <v>44496</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9386,7 +9386,7 @@
         <v>44529</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9443,7 +9443,7 @@
         <v>44531</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9500,7 +9500,7 @@
         <v>44537</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9557,7 +9557,7 @@
         <v>44589</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9619,7 +9619,7 @@
         <v>44595</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9681,7 +9681,7 @@
         <v>44599</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9738,7 +9738,7 @@
         <v>44614</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9800,7 +9800,7 @@
         <v>44673</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9862,7 +9862,7 @@
         <v>44705</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9919,7 +9919,7 @@
         <v>44746</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         <v>44803</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10033,7 +10033,7 @@
         <v>44809</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10095,7 +10095,7 @@
         <v>44837</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10157,7 +10157,7 @@
         <v>44882</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10214,7 +10214,7 @@
         <v>44900</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10271,7 +10271,7 @@
         <v>44908</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10328,7 +10328,7 @@
         <v>44937</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10385,7 +10385,7 @@
         <v>44972</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10442,7 +10442,7 @@
         <v>44972</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>44974</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10556,7 +10556,7 @@
         <v>44974</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10613,7 +10613,7 @@
         <v>45002</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10670,7 +10670,7 @@
         <v>45075</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10727,7 +10727,7 @@
         <v>45076</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10784,7 +10784,7 @@
         <v>45076</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10841,7 +10841,7 @@
         <v>45098</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10898,7 +10898,7 @@
         <v>45098</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10955,7 +10955,7 @@
         <v>45140</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11012,7 +11012,7 @@
         <v>45152</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>45153</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11126,7 +11126,7 @@
         <v>45153</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>45161</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>

--- a/Översikt KARLSBORG.xlsx
+++ b/Översikt KARLSBORG.xlsx
@@ -572,7 +572,7 @@
         <v>44929</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>43803</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -749,7 +749,7 @@
         <v>43804</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         <v>44069</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
         <v>43711</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1010,7 +1010,7 @@
         <v>43325</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1067,7 +1067,7 @@
         <v>43340</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1124,7 +1124,7 @@
         <v>43360</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1181,7 +1181,7 @@
         <v>43360</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1238,7 +1238,7 @@
         <v>43389</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1300,7 +1300,7 @@
         <v>43403</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1357,7 +1357,7 @@
         <v>43403</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1414,7 +1414,7 @@
         <v>43412</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1471,7 +1471,7 @@
         <v>43413</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1528,7 +1528,7 @@
         <v>43431</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1585,7 +1585,7 @@
         <v>43431</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
         <v>43434</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1699,7 +1699,7 @@
         <v>43434</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1756,7 +1756,7 @@
         <v>43437</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1818,7 +1818,7 @@
         <v>43445</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1875,7 +1875,7 @@
         <v>43477</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1932,7 +1932,7 @@
         <v>43493</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         <v>43507</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2046,7 +2046,7 @@
         <v>43509</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2103,7 +2103,7 @@
         <v>43509</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2160,7 +2160,7 @@
         <v>43516</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2217,7 +2217,7 @@
         <v>43517</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2274,7 +2274,7 @@
         <v>43522</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
         <v>43528</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2388,7 +2388,7 @@
         <v>43537</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2445,7 +2445,7 @@
         <v>43557</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2502,7 +2502,7 @@
         <v>43572</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2559,7 +2559,7 @@
         <v>43572</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2616,7 +2616,7 @@
         <v>43584</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2678,7 +2678,7 @@
         <v>43589</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2740,7 +2740,7 @@
         <v>43589</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2802,7 +2802,7 @@
         <v>43609</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2864,7 +2864,7 @@
         <v>43613</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2921,7 +2921,7 @@
         <v>43621</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2983,7 +2983,7 @@
         <v>43621</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3045,7 +3045,7 @@
         <v>43621</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3107,7 +3107,7 @@
         <v>43621</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3169,7 +3169,7 @@
         <v>43621</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3231,7 +3231,7 @@
         <v>43630</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3293,7 +3293,7 @@
         <v>43630</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3355,7 +3355,7 @@
         <v>43630</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3417,7 +3417,7 @@
         <v>43630</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
         <v>43634</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3536,7 +3536,7 @@
         <v>43634</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>43634</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>43634</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         <v>43635</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3764,7 +3764,7 @@
         <v>43644</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3821,7 +3821,7 @@
         <v>43683</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3883,7 +3883,7 @@
         <v>43683</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
         <v>43685</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4002,7 +4002,7 @@
         <v>43685</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>43685</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         <v>43685</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4173,7 +4173,7 @@
         <v>43692</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4235,7 +4235,7 @@
         <v>43703</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4292,7 +4292,7 @@
         <v>43705</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4354,7 +4354,7 @@
         <v>43705</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4416,7 +4416,7 @@
         <v>43714</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4473,7 +4473,7 @@
         <v>43724</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4530,7 +4530,7 @@
         <v>43733</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4592,7 +4592,7 @@
         <v>43740</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4649,7 +4649,7 @@
         <v>43748</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         <v>43762</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4763,7 +4763,7 @@
         <v>43762</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4820,7 +4820,7 @@
         <v>43762</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4877,7 +4877,7 @@
         <v>43781</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4934,7 +4934,7 @@
         <v>43786</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4991,7 +4991,7 @@
         <v>43794</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5048,7 +5048,7 @@
         <v>43794</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5105,7 +5105,7 @@
         <v>43794</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5162,7 +5162,7 @@
         <v>43796</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5219,7 +5219,7 @@
         <v>43804</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5276,7 +5276,7 @@
         <v>43804</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5333,7 +5333,7 @@
         <v>43804</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5390,7 +5390,7 @@
         <v>43804</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5447,7 +5447,7 @@
         <v>43810</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5504,7 +5504,7 @@
         <v>43815</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5561,7 +5561,7 @@
         <v>43815</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5618,7 +5618,7 @@
         <v>43838</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5675,7 +5675,7 @@
         <v>43853</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5732,7 +5732,7 @@
         <v>43865</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5789,7 +5789,7 @@
         <v>43873</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         <v>43873</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5913,7 +5913,7 @@
         <v>43874</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5975,7 +5975,7 @@
         <v>43874</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         <v>43874</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         <v>43874</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>43874</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>43902</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
         <v>43909</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>43936</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6394,7 +6394,7 @@
         <v>43951</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6451,7 +6451,7 @@
         <v>43957</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6508,7 +6508,7 @@
         <v>43973</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6570,7 +6570,7 @@
         <v>43973</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6632,7 +6632,7 @@
         <v>43973</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6694,7 +6694,7 @@
         <v>43978</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6756,7 +6756,7 @@
         <v>43984</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6813,7 +6813,7 @@
         <v>43990</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6870,7 +6870,7 @@
         <v>44034</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6927,7 +6927,7 @@
         <v>44069</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>44072</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>44089</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7103,7 +7103,7 @@
         <v>44089</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7165,7 +7165,7 @@
         <v>44105</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7222,7 +7222,7 @@
         <v>44112</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7279,7 +7279,7 @@
         <v>44118</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7336,7 +7336,7 @@
         <v>44144</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7393,7 +7393,7 @@
         <v>44144</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7450,7 +7450,7 @@
         <v>44179</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7512,7 +7512,7 @@
         <v>44181</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7569,7 +7569,7 @@
         <v>44181</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7626,7 +7626,7 @@
         <v>44182</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7683,7 +7683,7 @@
         <v>44194</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7740,7 +7740,7 @@
         <v>44198</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7797,7 +7797,7 @@
         <v>44209</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7854,7 +7854,7 @@
         <v>44217</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7916,7 +7916,7 @@
         <v>44221</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7973,7 +7973,7 @@
         <v>44222</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8030,7 +8030,7 @@
         <v>44225</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8087,7 +8087,7 @@
         <v>44250</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8144,7 +8144,7 @@
         <v>44266</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8201,7 +8201,7 @@
         <v>44285</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8258,7 +8258,7 @@
         <v>44295</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8315,7 +8315,7 @@
         <v>44315</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8377,7 +8377,7 @@
         <v>44323</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8434,7 +8434,7 @@
         <v>44375</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8491,7 +8491,7 @@
         <v>44426</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8548,7 +8548,7 @@
         <v>44427</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8610,7 +8610,7 @@
         <v>44428</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8672,7 +8672,7 @@
         <v>44448</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8729,7 +8729,7 @@
         <v>44448</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         <v>44448</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8843,7 +8843,7 @@
         <v>44476</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8900,7 +8900,7 @@
         <v>44490</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8957,7 +8957,7 @@
         <v>44494</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9019,7 +9019,7 @@
         <v>44494</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9081,7 +9081,7 @@
         <v>44494</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9143,7 +9143,7 @@
         <v>44494</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9205,7 +9205,7 @@
         <v>44494</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9267,7 +9267,7 @@
         <v>44494</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9329,7 +9329,7 @@
         <v>44496</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9386,7 +9386,7 @@
         <v>44529</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9443,7 +9443,7 @@
         <v>44531</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9500,7 +9500,7 @@
         <v>44537</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9557,7 +9557,7 @@
         <v>44589</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9619,7 +9619,7 @@
         <v>44595</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9681,7 +9681,7 @@
         <v>44599</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9738,7 +9738,7 @@
         <v>44614</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9800,7 +9800,7 @@
         <v>44673</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9862,7 +9862,7 @@
         <v>44705</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9919,7 +9919,7 @@
         <v>44746</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         <v>44803</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10033,7 +10033,7 @@
         <v>44809</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10095,7 +10095,7 @@
         <v>44837</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10157,7 +10157,7 @@
         <v>44882</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10214,7 +10214,7 @@
         <v>44900</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10271,7 +10271,7 @@
         <v>44908</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10328,7 +10328,7 @@
         <v>44937</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10385,7 +10385,7 @@
         <v>44972</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10442,7 +10442,7 @@
         <v>44972</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>44974</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10556,7 +10556,7 @@
         <v>44974</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10613,7 +10613,7 @@
         <v>45002</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10670,7 +10670,7 @@
         <v>45075</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10727,7 +10727,7 @@
         <v>45076</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10784,7 +10784,7 @@
         <v>45076</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10841,7 +10841,7 @@
         <v>45098</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10898,7 +10898,7 @@
         <v>45098</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10955,7 +10955,7 @@
         <v>45140</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11012,7 +11012,7 @@
         <v>45152</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>45153</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11126,7 +11126,7 @@
         <v>45153</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>45161</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>

--- a/Översikt KARLSBORG.xlsx
+++ b/Översikt KARLSBORG.xlsx
@@ -572,7 +572,7 @@
         <v>44929</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>43803</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -749,7 +749,7 @@
         <v>43804</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         <v>44069</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
         <v>43711</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1010,7 +1010,7 @@
         <v>43325</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1067,7 +1067,7 @@
         <v>43340</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1124,7 +1124,7 @@
         <v>43360</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1181,7 +1181,7 @@
         <v>43360</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1238,7 +1238,7 @@
         <v>43389</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1300,7 +1300,7 @@
         <v>43403</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1357,7 +1357,7 @@
         <v>43403</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1414,7 +1414,7 @@
         <v>43412</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1471,7 +1471,7 @@
         <v>43413</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1528,7 +1528,7 @@
         <v>43431</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1585,7 +1585,7 @@
         <v>43431</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
         <v>43434</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1699,7 +1699,7 @@
         <v>43434</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1756,7 +1756,7 @@
         <v>43437</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1818,7 +1818,7 @@
         <v>43445</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1875,7 +1875,7 @@
         <v>43477</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1932,7 +1932,7 @@
         <v>43493</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         <v>43507</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2046,7 +2046,7 @@
         <v>43509</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2103,7 +2103,7 @@
         <v>43509</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2160,7 +2160,7 @@
         <v>43516</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2217,7 +2217,7 @@
         <v>43517</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2274,7 +2274,7 @@
         <v>43522</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
         <v>43528</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2388,7 +2388,7 @@
         <v>43537</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2445,7 +2445,7 @@
         <v>43557</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2502,7 +2502,7 @@
         <v>43572</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2559,7 +2559,7 @@
         <v>43572</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2616,7 +2616,7 @@
         <v>43584</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2678,7 +2678,7 @@
         <v>43589</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2740,7 +2740,7 @@
         <v>43589</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2802,7 +2802,7 @@
         <v>43609</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2864,7 +2864,7 @@
         <v>43613</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2921,7 +2921,7 @@
         <v>43621</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2983,7 +2983,7 @@
         <v>43621</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3045,7 +3045,7 @@
         <v>43621</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3107,7 +3107,7 @@
         <v>43621</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3169,7 +3169,7 @@
         <v>43621</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3231,7 +3231,7 @@
         <v>43630</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3293,7 +3293,7 @@
         <v>43630</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3355,7 +3355,7 @@
         <v>43630</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3417,7 +3417,7 @@
         <v>43630</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
         <v>43634</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3536,7 +3536,7 @@
         <v>43634</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>43634</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>43634</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         <v>43635</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3764,7 +3764,7 @@
         <v>43644</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3821,7 +3821,7 @@
         <v>43683</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3883,7 +3883,7 @@
         <v>43683</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
         <v>43685</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4002,7 +4002,7 @@
         <v>43685</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>43685</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         <v>43685</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4173,7 +4173,7 @@
         <v>43692</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4235,7 +4235,7 @@
         <v>43703</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4292,7 +4292,7 @@
         <v>43705</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4354,7 +4354,7 @@
         <v>43705</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4416,7 +4416,7 @@
         <v>43714</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4473,7 +4473,7 @@
         <v>43724</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4530,7 +4530,7 @@
         <v>43733</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4592,7 +4592,7 @@
         <v>43740</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4649,7 +4649,7 @@
         <v>43748</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         <v>43762</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4763,7 +4763,7 @@
         <v>43762</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4820,7 +4820,7 @@
         <v>43762</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4877,7 +4877,7 @@
         <v>43781</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4934,7 +4934,7 @@
         <v>43786</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4991,7 +4991,7 @@
         <v>43794</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5048,7 +5048,7 @@
         <v>43794</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5105,7 +5105,7 @@
         <v>43794</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5162,7 +5162,7 @@
         <v>43796</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5219,7 +5219,7 @@
         <v>43804</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5276,7 +5276,7 @@
         <v>43804</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5333,7 +5333,7 @@
         <v>43804</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5390,7 +5390,7 @@
         <v>43804</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5447,7 +5447,7 @@
         <v>43810</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5504,7 +5504,7 @@
         <v>43815</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5561,7 +5561,7 @@
         <v>43815</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5618,7 +5618,7 @@
         <v>43838</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5675,7 +5675,7 @@
         <v>43853</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5732,7 +5732,7 @@
         <v>43865</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5789,7 +5789,7 @@
         <v>43873</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         <v>43873</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5913,7 +5913,7 @@
         <v>43874</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5975,7 +5975,7 @@
         <v>43874</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         <v>43874</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         <v>43874</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>43874</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>43902</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
         <v>43909</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>43936</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6394,7 +6394,7 @@
         <v>43951</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6451,7 +6451,7 @@
         <v>43957</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6508,7 +6508,7 @@
         <v>43973</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6570,7 +6570,7 @@
         <v>43973</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6632,7 +6632,7 @@
         <v>43973</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6694,7 +6694,7 @@
         <v>43978</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6756,7 +6756,7 @@
         <v>43984</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6813,7 +6813,7 @@
         <v>43990</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6870,7 +6870,7 @@
         <v>44034</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6927,7 +6927,7 @@
         <v>44069</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>44072</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>44089</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7103,7 +7103,7 @@
         <v>44089</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7165,7 +7165,7 @@
         <v>44105</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7222,7 +7222,7 @@
         <v>44112</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7279,7 +7279,7 @@
         <v>44118</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7336,7 +7336,7 @@
         <v>44144</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7393,7 +7393,7 @@
         <v>44144</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7450,7 +7450,7 @@
         <v>44179</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7512,7 +7512,7 @@
         <v>44181</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7569,7 +7569,7 @@
         <v>44181</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7626,7 +7626,7 @@
         <v>44182</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7683,7 +7683,7 @@
         <v>44194</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7740,7 +7740,7 @@
         <v>44198</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7797,7 +7797,7 @@
         <v>44209</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7854,7 +7854,7 @@
         <v>44217</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7916,7 +7916,7 @@
         <v>44221</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7973,7 +7973,7 @@
         <v>44222</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8030,7 +8030,7 @@
         <v>44225</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8087,7 +8087,7 @@
         <v>44250</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8144,7 +8144,7 @@
         <v>44266</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8201,7 +8201,7 @@
         <v>44285</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8258,7 +8258,7 @@
         <v>44295</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8315,7 +8315,7 @@
         <v>44315</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8377,7 +8377,7 @@
         <v>44323</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8434,7 +8434,7 @@
         <v>44375</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8491,7 +8491,7 @@
         <v>44426</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8548,7 +8548,7 @@
         <v>44427</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8610,7 +8610,7 @@
         <v>44428</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8672,7 +8672,7 @@
         <v>44448</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8729,7 +8729,7 @@
         <v>44448</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         <v>44448</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8843,7 +8843,7 @@
         <v>44476</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8900,7 +8900,7 @@
         <v>44490</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8957,7 +8957,7 @@
         <v>44494</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9019,7 +9019,7 @@
         <v>44494</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9081,7 +9081,7 @@
         <v>44494</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9143,7 +9143,7 @@
         <v>44494</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9205,7 +9205,7 @@
         <v>44494</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9267,7 +9267,7 @@
         <v>44494</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9329,7 +9329,7 @@
         <v>44496</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9386,7 +9386,7 @@
         <v>44529</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9443,7 +9443,7 @@
         <v>44531</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9500,7 +9500,7 @@
         <v>44537</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9557,7 +9557,7 @@
         <v>44589</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9619,7 +9619,7 @@
         <v>44595</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9681,7 +9681,7 @@
         <v>44599</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9738,7 +9738,7 @@
         <v>44614</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9800,7 +9800,7 @@
         <v>44673</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9862,7 +9862,7 @@
         <v>44705</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9919,7 +9919,7 @@
         <v>44746</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         <v>44803</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10033,7 +10033,7 @@
         <v>44809</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10095,7 +10095,7 @@
         <v>44837</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10157,7 +10157,7 @@
         <v>44882</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10214,7 +10214,7 @@
         <v>44900</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10271,7 +10271,7 @@
         <v>44908</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10328,7 +10328,7 @@
         <v>44937</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10385,7 +10385,7 @@
         <v>44972</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10442,7 +10442,7 @@
         <v>44972</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>44974</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10556,7 +10556,7 @@
         <v>44974</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10613,7 +10613,7 @@
         <v>45002</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10670,7 +10670,7 @@
         <v>45075</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10727,7 +10727,7 @@
         <v>45076</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10784,7 +10784,7 @@
         <v>45076</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10841,7 +10841,7 @@
         <v>45098</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10898,7 +10898,7 @@
         <v>45098</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10955,7 +10955,7 @@
         <v>45140</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11012,7 +11012,7 @@
         <v>45152</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>45153</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11126,7 +11126,7 @@
         <v>45153</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>45161</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>

--- a/Översikt KARLSBORG.xlsx
+++ b/Översikt KARLSBORG.xlsx
@@ -572,7 +572,7 @@
         <v>44929</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>43803</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -749,7 +749,7 @@
         <v>43804</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         <v>44069</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
         <v>43711</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1010,7 +1010,7 @@
         <v>43325</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1067,7 +1067,7 @@
         <v>43340</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1124,7 +1124,7 @@
         <v>43360</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1181,7 +1181,7 @@
         <v>43360</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1238,7 +1238,7 @@
         <v>43389</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1300,7 +1300,7 @@
         <v>43403</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1357,7 +1357,7 @@
         <v>43403</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1414,7 +1414,7 @@
         <v>43412</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1471,7 +1471,7 @@
         <v>43413</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1528,7 +1528,7 @@
         <v>43431</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1585,7 +1585,7 @@
         <v>43431</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
         <v>43434</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1699,7 +1699,7 @@
         <v>43434</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1756,7 +1756,7 @@
         <v>43437</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1818,7 +1818,7 @@
         <v>43445</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1875,7 +1875,7 @@
         <v>43477</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1932,7 +1932,7 @@
         <v>43493</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         <v>43507</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2046,7 +2046,7 @@
         <v>43509</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2103,7 +2103,7 @@
         <v>43509</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2160,7 +2160,7 @@
         <v>43516</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2217,7 +2217,7 @@
         <v>43517</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2274,7 +2274,7 @@
         <v>43522</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
         <v>43528</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2388,7 +2388,7 @@
         <v>43537</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2445,7 +2445,7 @@
         <v>43557</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2502,7 +2502,7 @@
         <v>43572</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2559,7 +2559,7 @@
         <v>43572</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2616,7 +2616,7 @@
         <v>43584</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2678,7 +2678,7 @@
         <v>43589</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2740,7 +2740,7 @@
         <v>43589</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2802,7 +2802,7 @@
         <v>43609</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2864,7 +2864,7 @@
         <v>43613</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2921,7 +2921,7 @@
         <v>43621</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2983,7 +2983,7 @@
         <v>43621</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3045,7 +3045,7 @@
         <v>43621</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3107,7 +3107,7 @@
         <v>43621</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3169,7 +3169,7 @@
         <v>43621</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3231,7 +3231,7 @@
         <v>43630</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3293,7 +3293,7 @@
         <v>43630</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3355,7 +3355,7 @@
         <v>43630</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3417,7 +3417,7 @@
         <v>43630</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
         <v>43634</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3536,7 +3536,7 @@
         <v>43634</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>43634</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>43634</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         <v>43635</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3764,7 +3764,7 @@
         <v>43644</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3821,7 +3821,7 @@
         <v>43683</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3883,7 +3883,7 @@
         <v>43683</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
         <v>43685</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4002,7 +4002,7 @@
         <v>43685</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>43685</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         <v>43685</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4173,7 +4173,7 @@
         <v>43692</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4235,7 +4235,7 @@
         <v>43703</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4292,7 +4292,7 @@
         <v>43705</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4354,7 +4354,7 @@
         <v>43705</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4416,7 +4416,7 @@
         <v>43714</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4473,7 +4473,7 @@
         <v>43724</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4530,7 +4530,7 @@
         <v>43733</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4592,7 +4592,7 @@
         <v>43740</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4649,7 +4649,7 @@
         <v>43748</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         <v>43762</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4763,7 +4763,7 @@
         <v>43762</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4820,7 +4820,7 @@
         <v>43762</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4877,7 +4877,7 @@
         <v>43781</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4934,7 +4934,7 @@
         <v>43786</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4991,7 +4991,7 @@
         <v>43794</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5048,7 +5048,7 @@
         <v>43794</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5105,7 +5105,7 @@
         <v>43794</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5162,7 +5162,7 @@
         <v>43796</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5219,7 +5219,7 @@
         <v>43804</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5276,7 +5276,7 @@
         <v>43804</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5333,7 +5333,7 @@
         <v>43804</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5390,7 +5390,7 @@
         <v>43804</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5447,7 +5447,7 @@
         <v>43810</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5504,7 +5504,7 @@
         <v>43815</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5561,7 +5561,7 @@
         <v>43815</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5618,7 +5618,7 @@
         <v>43838</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5675,7 +5675,7 @@
         <v>43853</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5732,7 +5732,7 @@
         <v>43865</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5789,7 +5789,7 @@
         <v>43873</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         <v>43873</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5913,7 +5913,7 @@
         <v>43874</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5975,7 +5975,7 @@
         <v>43874</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         <v>43874</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         <v>43874</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>43874</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>43902</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
         <v>43909</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>43936</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6394,7 +6394,7 @@
         <v>43951</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6451,7 +6451,7 @@
         <v>43957</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6508,7 +6508,7 @@
         <v>43973</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6570,7 +6570,7 @@
         <v>43973</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6632,7 +6632,7 @@
         <v>43973</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6694,7 +6694,7 @@
         <v>43978</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6756,7 +6756,7 @@
         <v>43984</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6813,7 +6813,7 @@
         <v>43990</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6870,7 +6870,7 @@
         <v>44034</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6927,7 +6927,7 @@
         <v>44069</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>44072</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>44089</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7103,7 +7103,7 @@
         <v>44089</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7165,7 +7165,7 @@
         <v>44105</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7222,7 +7222,7 @@
         <v>44112</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7279,7 +7279,7 @@
         <v>44118</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7336,7 +7336,7 @@
         <v>44144</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7393,7 +7393,7 @@
         <v>44144</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7450,7 +7450,7 @@
         <v>44179</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7512,7 +7512,7 @@
         <v>44181</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7569,7 +7569,7 @@
         <v>44181</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7626,7 +7626,7 @@
         <v>44182</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7683,7 +7683,7 @@
         <v>44194</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7740,7 +7740,7 @@
         <v>44198</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7797,7 +7797,7 @@
         <v>44209</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7854,7 +7854,7 @@
         <v>44217</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7916,7 +7916,7 @@
         <v>44221</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7973,7 +7973,7 @@
         <v>44222</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8030,7 +8030,7 @@
         <v>44225</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8087,7 +8087,7 @@
         <v>44250</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8144,7 +8144,7 @@
         <v>44266</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8201,7 +8201,7 @@
         <v>44285</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8258,7 +8258,7 @@
         <v>44295</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8315,7 +8315,7 @@
         <v>44315</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8377,7 +8377,7 @@
         <v>44323</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8434,7 +8434,7 @@
         <v>44375</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8491,7 +8491,7 @@
         <v>44426</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8548,7 +8548,7 @@
         <v>44427</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8610,7 +8610,7 @@
         <v>44428</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8672,7 +8672,7 @@
         <v>44448</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8729,7 +8729,7 @@
         <v>44448</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         <v>44448</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8843,7 +8843,7 @@
         <v>44476</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8900,7 +8900,7 @@
         <v>44490</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8957,7 +8957,7 @@
         <v>44494</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9019,7 +9019,7 @@
         <v>44494</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9081,7 +9081,7 @@
         <v>44494</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9143,7 +9143,7 @@
         <v>44494</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9205,7 +9205,7 @@
         <v>44494</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9267,7 +9267,7 @@
         <v>44494</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9329,7 +9329,7 @@
         <v>44496</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9386,7 +9386,7 @@
         <v>44529</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9443,7 +9443,7 @@
         <v>44531</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9500,7 +9500,7 @@
         <v>44537</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9557,7 +9557,7 @@
         <v>44589</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9619,7 +9619,7 @@
         <v>44595</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9681,7 +9681,7 @@
         <v>44599</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9738,7 +9738,7 @@
         <v>44614</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9800,7 +9800,7 @@
         <v>44673</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9862,7 +9862,7 @@
         <v>44705</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9919,7 +9919,7 @@
         <v>44746</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         <v>44803</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10033,7 +10033,7 @@
         <v>44809</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10095,7 +10095,7 @@
         <v>44837</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10157,7 +10157,7 @@
         <v>44882</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10214,7 +10214,7 @@
         <v>44900</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10271,7 +10271,7 @@
         <v>44908</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10328,7 +10328,7 @@
         <v>44937</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10385,7 +10385,7 @@
         <v>44972</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10442,7 +10442,7 @@
         <v>44972</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>44974</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10556,7 +10556,7 @@
         <v>44974</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10613,7 +10613,7 @@
         <v>45002</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10670,7 +10670,7 @@
         <v>45075</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10727,7 +10727,7 @@
         <v>45076</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10784,7 +10784,7 @@
         <v>45076</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10841,7 +10841,7 @@
         <v>45098</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10898,7 +10898,7 @@
         <v>45098</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10955,7 +10955,7 @@
         <v>45140</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11012,7 +11012,7 @@
         <v>45152</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>45153</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11126,7 +11126,7 @@
         <v>45153</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>45161</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
